--- a/Documents/WAUSI.xlsx
+++ b/Documents/WAUSI.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziweishi/Documents/ziwei_project/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziweishi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1125316-8F43-6342-A7CF-31580B39FEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F0F4BA-ABFB-0E4A-A4C8-FD78CE3171AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{1D6C9FF0-7ECE-4F14-B8F0-07422B3E9429}"/>
+    <workbookView xWindow="780" yWindow="760" windowWidth="43780" windowHeight="17360" xr2:uid="{1D6C9FF0-7ECE-4F14-B8F0-07422B3E9429}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Validation Dataset" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Training Dataset'!$A$1:$V$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Training Dataset'!$A$1:$V$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Validation Dataset'!$A$1:$AA$79</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -58,7 +58,7 @@
     this patient 202-018 is missing all info for BSV, could you please check out, thanks! @Alex Krajcevska @Eddy Nyajro</t>
       </text>
     </comment>
-    <comment ref="V85" authorId="1" shapeId="0" xr:uid="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
+    <comment ref="V90" authorId="1" shapeId="0" xr:uid="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     Data input and SVD</t>
       </text>
     </comment>
-    <comment ref="O99" authorId="2" shapeId="0" xr:uid="{66FC9D2E-70E8-D249-9D0F-0C3503814442}">
+    <comment ref="O104" authorId="2" shapeId="0" xr:uid="{66FC9D2E-70E8-D249-9D0F-0C3503814442}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="373">
   <si>
     <t>Subject ID</t>
   </si>
@@ -469,6 +469,21 @@
   </si>
   <si>
     <t xml:space="preserve">DV images for SV10 &amp; SV11 not confirmed yet per monitor 's review; </t>
+  </si>
+  <si>
+    <t>202-040</t>
+  </si>
+  <si>
+    <t>202-041</t>
+  </si>
+  <si>
+    <t>202-042</t>
+  </si>
+  <si>
+    <t>202-043</t>
+  </si>
+  <si>
+    <t>202-044</t>
   </si>
   <si>
     <t>203-001</t>
@@ -725,6 +740,9 @@
     <t>203-057</t>
   </si>
   <si>
+    <t>SDV'd up to SV8</t>
+  </si>
+  <si>
     <t>203-058</t>
   </si>
   <si>
@@ -744,6 +762,24 @@
   </si>
   <si>
     <t>203-064</t>
+  </si>
+  <si>
+    <t>203-065</t>
+  </si>
+  <si>
+    <t>203-066</t>
+  </si>
+  <si>
+    <t>203-067</t>
+  </si>
+  <si>
+    <t>203-068</t>
+  </si>
+  <si>
+    <t>203-069</t>
+  </si>
+  <si>
+    <t>203-070</t>
   </si>
   <si>
     <t>204-001</t>
@@ -888,7 +924,16 @@
     <t>292-017</t>
   </si>
   <si>
+    <t>SDV'd upto and including SV 1</t>
+  </si>
+  <si>
     <t>292-018</t>
+  </si>
+  <si>
+    <t>292-019</t>
+  </si>
+  <si>
+    <t>292-020</t>
   </si>
   <si>
     <t>SDV Status</t>
@@ -2049,22 +2094,22 @@
       <mention mentionpersonId="{EAF787BA-F2AA-445F-A4D6-DA8BDB144B21}" mentionId="{D1BD72BF-C752-DB47-A021-5B0FD2780A05}" startIndex="103" length="12"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="V85" dT="2023-05-03T14:58:21.97" personId="{5557EB27-63AE-F74E-BF93-74A298D20937}" id="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}" done="1">
+  <threadedComment ref="V90" dT="2023-05-03T14:58:21.97" personId="{5557EB27-63AE-F74E-BF93-74A298D20937}" id="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}" done="1">
     <text>These three visits are not updated into Castor @Toyin Jaiyeola Could you please check out? THX!</text>
     <mentions>
       <mention mentionpersonId="{CB43BE55-57B2-3A45-A12D-ADA10494EF6E}" mentionId="{27BC6737-F1E5-C844-8571-067141B6C029}" startIndex="47" length="15"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="V85" dT="2023-05-03T14:58:57.62" personId="{5557EB27-63AE-F74E-BF93-74A298D20937}" id="{993DC60C-59CA-0944-8785-A52CE984D40C}" parentId="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
+  <threadedComment ref="V90" dT="2023-05-03T14:58:57.62" personId="{5557EB27-63AE-F74E-BF93-74A298D20937}" id="{993DC60C-59CA-0944-8785-A52CE984D40C}" parentId="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
     <text>Visit SV 10, 11, 12</text>
   </threadedComment>
-  <threadedComment ref="V85" dT="2023-05-03T23:37:04.72" personId="{ECCA12EB-C6C5-4F3A-A60A-3A39F9B0610C}" id="{58955326-F83B-4F40-A4B8-709A7F696D72}" parentId="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
+  <threadedComment ref="V90" dT="2023-05-03T23:37:04.72" personId="{ECCA12EB-C6C5-4F3A-A60A-3A39F9B0610C}" id="{58955326-F83B-4F40-A4B8-709A7F696D72}" parentId="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
     <text>Will communicate to site for completion</text>
   </threadedComment>
-  <threadedComment ref="V85" dT="2023-05-11T16:41:08.33" personId="{ECCA12EB-C6C5-4F3A-A60A-3A39F9B0610C}" id="{C304BEA0-7B88-4D43-802E-4966B735D57D}" parentId="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
+  <threadedComment ref="V90" dT="2023-05-11T16:41:08.33" personId="{ECCA12EB-C6C5-4F3A-A60A-3A39F9B0610C}" id="{C304BEA0-7B88-4D43-802E-4966B735D57D}" parentId="{60DCAE5B-12D3-4E47-934C-E4EA693B949C}">
     <text>Data input and SVD</text>
   </threadedComment>
-  <threadedComment ref="O99" dT="2023-05-05T16:07:17.31" personId="{6F6AD494-E3A0-4233-AFD3-DF2D18483CD9}" id="{66FC9D2E-70E8-D249-9D0F-0C3503814442}">
+  <threadedComment ref="O104" dT="2023-05-05T16:07:17.31" personId="{6F6AD494-E3A0-4233-AFD3-DF2D18483CD9}" id="{66FC9D2E-70E8-D249-9D0F-0C3503814442}">
     <text>Data missing for temp, BP, etc, for the last two visits</text>
   </threadedComment>
 </ThreadedComments>
@@ -2073,13 +2118,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94D2FB-7191-44BB-88C2-D162FE88D8E1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA155"/>
+  <dimension ref="A1:AA168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C162" sqref="C162"/>
+      <selection pane="bottomRight" activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2087,7 +2132,7 @@
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="34.1640625" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
@@ -5584,272 +5629,192 @@
       <c r="X68" s="25"/>
     </row>
     <row r="69" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="1">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>23</v>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="77"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="20"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
       <c r="I69" t="s">
         <v>70</v>
       </c>
-      <c r="J69" s="26" t="s">
-        <v>129</v>
+      <c r="J69" s="26">
+        <v>45160</v>
       </c>
       <c r="K69" s="26">
-        <v>44749</v>
-      </c>
-      <c r="L69" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="M69" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="N69" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="O69" s="26">
-        <v>44775</v>
-      </c>
-      <c r="P69" s="26">
-        <v>44782</v>
-      </c>
-      <c r="Q69" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="R69" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="S69" s="26">
-        <v>44812</v>
-      </c>
+        <v>45174</v>
+      </c>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
       <c r="T69" s="26"/>
       <c r="U69" s="26"/>
-      <c r="V69" s="26">
-        <v>44812</v>
-      </c>
+      <c r="V69" s="26"/>
       <c r="W69" s="25"/>
       <c r="X69" s="25"/>
     </row>
     <row r="70" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="1">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>23</v>
+      <c r="A70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
       </c>
       <c r="F70" s="77"/>
-      <c r="H70" s="22"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
       <c r="I70" t="s">
         <v>70</v>
       </c>
       <c r="J70" s="26">
-        <v>44735</v>
+        <v>45160</v>
       </c>
       <c r="K70" s="26">
-        <v>44740</v>
+        <v>45168</v>
       </c>
       <c r="L70" s="26">
-        <v>44747</v>
-      </c>
-      <c r="M70" s="26">
-        <v>44754</v>
-      </c>
-      <c r="N70" s="26">
-        <v>44761</v>
-      </c>
-      <c r="O70" s="26">
-        <v>44775</v>
-      </c>
+        <v>45175</v>
+      </c>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
       <c r="P70" s="26"/>
       <c r="Q70" s="26"/>
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
       <c r="T70" s="26"/>
       <c r="U70" s="26"/>
-      <c r="V70" s="26">
-        <v>44600</v>
-      </c>
+      <c r="V70" s="26"/>
       <c r="W70" s="25"/>
       <c r="X70" s="25"/>
     </row>
     <row r="71" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="1">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>23</v>
+      <c r="A71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="F71" s="77"/>
-      <c r="H71" s="20"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
       <c r="I71" t="s">
         <v>70</v>
       </c>
       <c r="J71" s="26">
-        <v>44735</v>
-      </c>
-      <c r="K71" s="26">
-        <v>44740</v>
-      </c>
-      <c r="L71" s="26">
-        <v>44747</v>
-      </c>
-      <c r="M71" s="26">
-        <v>44754</v>
-      </c>
-      <c r="N71" s="26">
-        <v>44761</v>
-      </c>
-      <c r="O71" s="26">
-        <v>44768</v>
-      </c>
-      <c r="P71" s="26">
-        <v>44775</v>
-      </c>
-      <c r="Q71" s="26">
-        <v>44782</v>
-      </c>
-      <c r="R71" s="26">
-        <v>44789</v>
-      </c>
-      <c r="S71" s="26">
-        <v>44796</v>
-      </c>
-      <c r="T71" s="26">
-        <v>44803</v>
-      </c>
-      <c r="U71" s="26">
-        <v>44810</v>
-      </c>
-      <c r="V71" s="26">
-        <v>44810</v>
-      </c>
+        <v>45160</v>
+      </c>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="26"/>
       <c r="W71" s="25"/>
       <c r="X71" s="25"/>
     </row>
     <row r="72" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="1">
-        <v>12</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>23</v>
+      <c r="A72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="F72" s="77"/>
-      <c r="H72" s="20"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
       <c r="I72" t="s">
         <v>70</v>
       </c>
       <c r="J72" s="26">
-        <v>44740</v>
+        <v>45160</v>
       </c>
       <c r="K72" s="26">
-        <v>44749</v>
+        <v>45169</v>
       </c>
       <c r="L72" s="26">
-        <v>44754</v>
-      </c>
-      <c r="M72" s="26">
-        <v>44761</v>
-      </c>
-      <c r="N72" s="26">
-        <v>44769</v>
-      </c>
-      <c r="O72" s="26">
-        <v>44776</v>
-      </c>
-      <c r="P72" s="26">
-        <v>44783</v>
-      </c>
-      <c r="Q72" s="26">
-        <v>44788</v>
-      </c>
-      <c r="R72" s="26">
-        <v>44795</v>
-      </c>
-      <c r="S72" s="26">
-        <v>44802</v>
-      </c>
-      <c r="T72" s="26">
-        <v>44811</v>
-      </c>
-      <c r="U72" s="26">
-        <v>44816</v>
-      </c>
-      <c r="V72" s="26">
-        <v>44816</v>
-      </c>
+        <v>45174</v>
+      </c>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+      <c r="V72" s="26"/>
       <c r="W72" s="25"/>
       <c r="X72" s="25"/>
     </row>
     <row r="73" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="1">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>23</v>
+      <c r="A73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
       </c>
       <c r="F73" s="77"/>
-      <c r="H73" s="20"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
       <c r="I73" t="s">
         <v>70</v>
       </c>
       <c r="J73" s="26">
-        <v>44742</v>
-      </c>
-      <c r="K73" s="26">
-        <v>44749</v>
-      </c>
-      <c r="L73" s="26">
-        <v>44756</v>
-      </c>
-      <c r="M73" s="26">
-        <v>44763</v>
-      </c>
-      <c r="N73" s="26">
-        <v>44768</v>
-      </c>
-      <c r="O73" s="26">
-        <v>44777</v>
-      </c>
-      <c r="P73" s="26">
-        <v>44784</v>
-      </c>
-      <c r="Q73" s="26">
-        <v>44791</v>
-      </c>
+        <v>45160</v>
+      </c>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26"/>
       <c r="T73" s="26"/>
@@ -5860,10 +5825,10 @@
     </row>
     <row r="74" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B74" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
@@ -5872,35 +5837,46 @@
         <v>24</v>
       </c>
       <c r="F74" s="77"/>
+      <c r="G74" s="34"/>
       <c r="H74" s="20"/>
       <c r="I74" t="s">
         <v>70</v>
       </c>
-      <c r="J74" s="26">
-        <v>44742</v>
+      <c r="J74" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="K74" s="26">
-        <v>44750</v>
-      </c>
-      <c r="L74" s="26">
-        <v>44757</v>
-      </c>
-      <c r="M74" s="26">
-        <v>44767</v>
-      </c>
-      <c r="N74" s="26">
+        <v>44749</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="O74" s="26">
         <v>44775</v>
       </c>
-      <c r="O74" s="26">
+      <c r="P74" s="26">
         <v>44782</v>
       </c>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
+      <c r="Q74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="R74" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="S74" s="26">
+        <v>44812</v>
+      </c>
       <c r="T74" s="26"/>
       <c r="U74" s="26"/>
-      <c r="V74" s="26"/>
+      <c r="V74" s="26">
+        <v>44812</v>
+      </c>
       <c r="W74" s="25"/>
       <c r="X74" s="25"/>
     </row>
@@ -5909,7 +5885,7 @@
         <v>139</v>
       </c>
       <c r="B75" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
@@ -5918,43 +5894,49 @@
         <v>24</v>
       </c>
       <c r="F75" s="77"/>
-      <c r="H75" s="20"/>
+      <c r="H75" s="22"/>
       <c r="I75" t="s">
         <v>70</v>
       </c>
       <c r="J75" s="26">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="K75" s="26">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="L75" s="26">
+        <v>44747</v>
+      </c>
+      <c r="M75" s="26">
+        <v>44754</v>
+      </c>
+      <c r="N75" s="26">
         <v>44761</v>
       </c>
-      <c r="M75" s="26">
-        <v>44768</v>
-      </c>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
+      <c r="O75" s="26">
+        <v>44775</v>
+      </c>
       <c r="P75" s="26"/>
       <c r="Q75" s="26"/>
       <c r="R75" s="26"/>
       <c r="S75" s="26"/>
       <c r="T75" s="26"/>
       <c r="U75" s="26"/>
-      <c r="V75" s="26"/>
+      <c r="V75" s="26">
+        <v>44600</v>
+      </c>
       <c r="W75" s="25"/>
       <c r="X75" s="25"/>
     </row>
     <row r="76" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>32</v>
+      <c r="B76" s="1">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -5965,20 +5947,44 @@
         <v>70</v>
       </c>
       <c r="J76" s="26">
-        <v>44743</v>
-      </c>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="26"/>
+        <v>44735</v>
+      </c>
+      <c r="K76" s="26">
+        <v>44740</v>
+      </c>
+      <c r="L76" s="26">
+        <v>44747</v>
+      </c>
+      <c r="M76" s="26">
+        <v>44754</v>
+      </c>
+      <c r="N76" s="26">
+        <v>44761</v>
+      </c>
+      <c r="O76" s="26">
+        <v>44768</v>
+      </c>
+      <c r="P76" s="26">
+        <v>44775</v>
+      </c>
+      <c r="Q76" s="26">
+        <v>44782</v>
+      </c>
+      <c r="R76" s="26">
+        <v>44789</v>
+      </c>
+      <c r="S76" s="26">
+        <v>44796</v>
+      </c>
+      <c r="T76" s="26">
+        <v>44803</v>
+      </c>
+      <c r="U76" s="26">
+        <v>44810</v>
+      </c>
+      <c r="V76" s="26">
+        <v>44810</v>
+      </c>
       <c r="W76" s="25"/>
       <c r="X76" s="25"/>
     </row>
@@ -6001,43 +6007,43 @@
         <v>70</v>
       </c>
       <c r="J77" s="26">
-        <v>44747</v>
+        <v>44740</v>
       </c>
       <c r="K77" s="26">
+        <v>44749</v>
+      </c>
+      <c r="L77" s="26">
         <v>44754</v>
       </c>
-      <c r="L77" s="26">
+      <c r="M77" s="26">
         <v>44761</v>
       </c>
-      <c r="M77" s="26">
-        <v>44768</v>
-      </c>
       <c r="N77" s="26">
-        <v>44777</v>
+        <v>44769</v>
       </c>
       <c r="O77" s="26">
-        <v>44781</v>
+        <v>44776</v>
       </c>
       <c r="P77" s="26">
+        <v>44783</v>
+      </c>
+      <c r="Q77" s="26">
         <v>44788</v>
       </c>
-      <c r="Q77" s="26">
+      <c r="R77" s="26">
         <v>44795</v>
       </c>
-      <c r="R77" s="26">
+      <c r="S77" s="26">
         <v>44802</v>
       </c>
-      <c r="S77" s="26">
+      <c r="T77" s="26">
         <v>44811</v>
       </c>
-      <c r="T77" s="26">
+      <c r="U77" s="26">
         <v>44816</v>
       </c>
-      <c r="U77" s="26">
-        <v>44826</v>
-      </c>
       <c r="V77" s="26">
-        <v>44826</v>
+        <v>44816</v>
       </c>
       <c r="W77" s="25"/>
       <c r="X77" s="25"/>
@@ -6047,7 +6053,7 @@
         <v>142</v>
       </c>
       <c r="B78" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>23</v>
@@ -6061,19 +6067,29 @@
         <v>70</v>
       </c>
       <c r="J78" s="26">
+        <v>44742</v>
+      </c>
+      <c r="K78" s="26">
         <v>44749</v>
       </c>
-      <c r="K78" s="26">
-        <v>44761</v>
-      </c>
       <c r="L78" s="26">
+        <v>44756</v>
+      </c>
+      <c r="M78" s="26">
+        <v>44763</v>
+      </c>
+      <c r="N78" s="26">
         <v>44768</v>
       </c>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
+      <c r="O78" s="26">
+        <v>44777</v>
+      </c>
+      <c r="P78" s="26">
+        <v>44784</v>
+      </c>
+      <c r="Q78" s="26">
+        <v>44791</v>
+      </c>
       <c r="R78" s="26"/>
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
@@ -6087,7 +6103,7 @@
         <v>143</v>
       </c>
       <c r="B79" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
@@ -6096,45 +6112,35 @@
         <v>24</v>
       </c>
       <c r="F79" s="77"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="20"/>
       <c r="I79" t="s">
         <v>70</v>
       </c>
       <c r="J79" s="26">
-        <v>44749</v>
+        <v>44742</v>
       </c>
       <c r="K79" s="26">
-        <v>44756</v>
+        <v>44750</v>
       </c>
       <c r="L79" s="26">
-        <v>44761</v>
+        <v>44757</v>
       </c>
       <c r="M79" s="26">
-        <v>44769</v>
+        <v>44767</v>
       </c>
       <c r="N79" s="26">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="O79" s="26">
         <v>44782</v>
       </c>
-      <c r="P79" s="26">
-        <v>44789</v>
-      </c>
-      <c r="Q79" s="26">
-        <v>44798</v>
-      </c>
-      <c r="R79" s="26">
-        <v>44805</v>
-      </c>
-      <c r="S79" s="26">
-        <v>44812</v>
-      </c>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
       <c r="T79" s="26"/>
       <c r="U79" s="26"/>
-      <c r="V79" s="26">
-        <v>44782</v>
-      </c>
+      <c r="V79" s="26"/>
       <c r="W79" s="25"/>
       <c r="X79" s="25"/>
     </row>
@@ -6143,7 +6149,7 @@
         <v>144</v>
       </c>
       <c r="B80" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>23</v>
@@ -6152,39 +6158,27 @@
         <v>24</v>
       </c>
       <c r="F80" s="77"/>
-      <c r="H80" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="H80" s="20"/>
       <c r="I80" t="s">
         <v>70</v>
       </c>
       <c r="J80" s="26">
-        <v>44750</v>
+        <v>44742</v>
       </c>
       <c r="K80" s="26">
+        <v>44743</v>
+      </c>
+      <c r="L80" s="26">
         <v>44761</v>
       </c>
-      <c r="L80" s="33">
+      <c r="M80" s="26">
         <v>44768</v>
       </c>
-      <c r="M80" s="26">
-        <v>44777</v>
-      </c>
-      <c r="N80" s="26">
-        <v>44784</v>
-      </c>
-      <c r="O80" s="26">
-        <v>44791</v>
-      </c>
-      <c r="P80" s="26">
-        <v>44798</v>
-      </c>
-      <c r="Q80" s="26">
-        <v>44805</v>
-      </c>
-      <c r="R80" s="26">
-        <v>44812</v>
-      </c>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
       <c r="U80" s="26"/>
@@ -6193,14 +6187,14 @@
       <c r="X80" s="25"/>
     </row>
     <row r="81" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="1">
-        <v>3</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>23</v>
+      <c r="A81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -6211,14 +6205,10 @@
         <v>70</v>
       </c>
       <c r="J81" s="26">
-        <v>44750</v>
-      </c>
-      <c r="K81" s="26">
-        <v>44757</v>
-      </c>
-      <c r="L81" s="26">
-        <v>44763</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
       <c r="M81" s="26"/>
       <c r="N81" s="26"/>
       <c r="O81" s="26"/>
@@ -6234,7 +6224,7 @@
     </row>
     <row r="82" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1">
         <v>12</v>
@@ -6251,53 +6241,53 @@
         <v>70</v>
       </c>
       <c r="J82" s="26">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="K82" s="26">
-        <v>44757</v>
+        <v>44754</v>
       </c>
       <c r="L82" s="26">
         <v>44761</v>
       </c>
       <c r="M82" s="26">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="N82" s="26">
         <v>44777</v>
       </c>
       <c r="O82" s="26">
-        <v>44783</v>
+        <v>44781</v>
       </c>
       <c r="P82" s="26">
-        <v>44792</v>
+        <v>44788</v>
       </c>
       <c r="Q82" s="26">
-        <v>44799</v>
+        <v>44795</v>
       </c>
       <c r="R82" s="26">
-        <v>44806</v>
+        <v>44802</v>
       </c>
       <c r="S82" s="26">
-        <v>44813</v>
+        <v>44811</v>
       </c>
       <c r="T82" s="26">
-        <v>44827</v>
+        <v>44816</v>
       </c>
       <c r="U82" s="26">
-        <v>44830</v>
+        <v>44826</v>
       </c>
       <c r="V82" s="26">
-        <v>44830</v>
+        <v>44826</v>
       </c>
       <c r="W82" s="25"/>
       <c r="X82" s="25"/>
     </row>
     <row r="83" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -6311,7 +6301,7 @@
         <v>70</v>
       </c>
       <c r="J83" s="26">
-        <v>44754</v>
+        <v>44749</v>
       </c>
       <c r="K83" s="26">
         <v>44761</v>
@@ -6319,81 +6309,81 @@
       <c r="L83" s="26">
         <v>44768</v>
       </c>
-      <c r="M83" s="26">
-        <v>44775</v>
-      </c>
-      <c r="N83" s="26">
-        <v>44784</v>
-      </c>
-      <c r="O83" s="26">
-        <v>44789</v>
-      </c>
-      <c r="P83" s="26">
-        <v>44799</v>
-      </c>
-      <c r="Q83" s="26">
-        <v>44806</v>
-      </c>
-      <c r="R83" s="26">
-        <v>44813</v>
-      </c>
-      <c r="S83" s="26">
-        <v>44817</v>
-      </c>
-      <c r="T83" s="26">
-        <v>44827</v>
-      </c>
-      <c r="U83" s="26">
-        <v>44834</v>
-      </c>
-      <c r="V83" s="26">
-        <v>44834</v>
-      </c>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="26"/>
+      <c r="V83" s="26"/>
       <c r="W83" s="25"/>
       <c r="X83" s="25"/>
     </row>
     <row r="84" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" s="2">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>32</v>
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
       <c r="F84" s="77"/>
-      <c r="H84" s="20"/>
+      <c r="H84" s="21"/>
       <c r="I84" t="s">
         <v>70</v>
       </c>
       <c r="J84" s="26">
+        <v>44749</v>
+      </c>
+      <c r="K84" s="26">
         <v>44756</v>
       </c>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
+      <c r="L84" s="26">
+        <v>44761</v>
+      </c>
+      <c r="M84" s="26">
+        <v>44769</v>
+      </c>
+      <c r="N84" s="26">
+        <v>44776</v>
+      </c>
+      <c r="O84" s="26">
+        <v>44782</v>
+      </c>
+      <c r="P84" s="26">
+        <v>44789</v>
+      </c>
+      <c r="Q84" s="26">
+        <v>44798</v>
+      </c>
+      <c r="R84" s="26">
+        <v>44805</v>
+      </c>
+      <c r="S84" s="26">
+        <v>44812</v>
+      </c>
       <c r="T84" s="26"/>
       <c r="U84" s="26"/>
-      <c r="V84" s="26"/>
+      <c r="V84" s="26">
+        <v>44782</v>
+      </c>
       <c r="W84" s="25"/>
       <c r="X84" s="25"/>
     </row>
     <row r="85" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>23</v>
@@ -6402,78 +6392,72 @@
         <v>24</v>
       </c>
       <c r="F85" s="77"/>
-      <c r="H85" s="34" t="s">
-        <v>151</v>
+      <c r="H85" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I85" t="s">
+        <v>70</v>
       </c>
       <c r="J85" s="26">
-        <v>44757</v>
+        <v>44750</v>
       </c>
       <c r="K85" s="26">
         <v>44761</v>
       </c>
-      <c r="L85" s="26">
+      <c r="L85" s="33">
         <v>44768</v>
       </c>
       <c r="M85" s="26">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="N85" s="26">
-        <v>44782</v>
+        <v>44784</v>
       </c>
       <c r="O85" s="26">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="P85" s="26">
         <v>44798</v>
       </c>
       <c r="Q85" s="26">
-        <v>44803</v>
+        <v>44805</v>
       </c>
       <c r="R85" s="26">
-        <v>44810</v>
-      </c>
-      <c r="S85" s="26">
-        <v>44824</v>
-      </c>
-      <c r="T85" s="26">
-        <v>44831</v>
-      </c>
-      <c r="U85" s="26">
-        <v>44840</v>
-      </c>
-      <c r="V85" s="26">
-        <v>44840</v>
-      </c>
+        <v>44812</v>
+      </c>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="26"/>
+      <c r="V85" s="26"/>
       <c r="W85" s="25"/>
       <c r="X85" s="25"/>
     </row>
     <row r="86" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="40">
+      <c r="A86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="1">
         <v>3</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
       </c>
       <c r="F86" s="77"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="41" t="s">
+      <c r="H86" s="20"/>
+      <c r="I86" t="s">
         <v>70</v>
       </c>
       <c r="J86" s="26">
+        <v>44750</v>
+      </c>
+      <c r="K86" s="26">
         <v>44757</v>
       </c>
-      <c r="K86" s="26">
-        <v>44761</v>
-      </c>
       <c r="L86" s="26">
-        <v>44769</v>
+        <v>44763</v>
       </c>
       <c r="M86" s="26"/>
       <c r="N86" s="26"/>
@@ -6489,14 +6473,14 @@
       <c r="X86" s="25"/>
     </row>
     <row r="87" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>32</v>
+      <c r="A87" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -6507,79 +6491,116 @@
         <v>70</v>
       </c>
       <c r="J87" s="26">
+        <v>44750</v>
+      </c>
+      <c r="K87" s="26">
+        <v>44757</v>
+      </c>
+      <c r="L87" s="26">
         <v>44761</v>
       </c>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="26"/>
-      <c r="S87" s="26"/>
-      <c r="T87" s="26"/>
-      <c r="U87" s="26"/>
-      <c r="V87" s="26"/>
+      <c r="M87" s="26">
+        <v>44769</v>
+      </c>
+      <c r="N87" s="26">
+        <v>44777</v>
+      </c>
+      <c r="O87" s="26">
+        <v>44783</v>
+      </c>
+      <c r="P87" s="26">
+        <v>44792</v>
+      </c>
+      <c r="Q87" s="26">
+        <v>44799</v>
+      </c>
+      <c r="R87" s="26">
+        <v>44806</v>
+      </c>
+      <c r="S87" s="26">
+        <v>44813</v>
+      </c>
+      <c r="T87" s="26">
+        <v>44827</v>
+      </c>
+      <c r="U87" s="26">
+        <v>44830</v>
+      </c>
+      <c r="V87" s="26">
+        <v>44830</v>
+      </c>
       <c r="W87" s="25"/>
       <c r="X87" s="25"/>
     </row>
     <row r="88" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="9">
-        <v>6</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>78</v>
+      <c r="A88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="1">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
       <c r="F88" s="77"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="21"/>
+      <c r="H88" s="20"/>
       <c r="I88" t="s">
         <v>70</v>
       </c>
       <c r="J88" s="26">
+        <v>44754</v>
+      </c>
+      <c r="K88" s="26">
         <v>44761</v>
       </c>
-      <c r="K88" s="26">
+      <c r="L88" s="26">
+        <v>44768</v>
+      </c>
+      <c r="M88" s="26">
         <v>44775</v>
       </c>
-      <c r="L88" s="26">
-        <v>44791</v>
-      </c>
-      <c r="M88" s="26">
+      <c r="N88" s="26">
+        <v>44784</v>
+      </c>
+      <c r="O88" s="26">
+        <v>44789</v>
+      </c>
+      <c r="P88" s="26">
+        <v>44799</v>
+      </c>
+      <c r="Q88" s="26">
+        <v>44806</v>
+      </c>
+      <c r="R88" s="26">
+        <v>44813</v>
+      </c>
+      <c r="S88" s="26">
         <v>44817</v>
       </c>
-      <c r="N88" s="26">
-        <v>44826</v>
-      </c>
-      <c r="O88" s="26">
-        <v>44833</v>
-      </c>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="26"/>
-      <c r="T88" s="26"/>
-      <c r="U88" s="26"/>
-      <c r="V88" s="26"/>
+      <c r="T88" s="26">
+        <v>44827</v>
+      </c>
+      <c r="U88" s="26">
+        <v>44834</v>
+      </c>
+      <c r="V88" s="26">
+        <v>44834</v>
+      </c>
       <c r="W88" s="25"/>
       <c r="X88" s="25"/>
     </row>
     <row r="89" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="1">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>23</v>
+      <c r="A89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -6590,20 +6611,12 @@
         <v>70</v>
       </c>
       <c r="J89" s="26">
-        <v>44761</v>
-      </c>
-      <c r="K89" s="26">
-        <v>44769</v>
-      </c>
-      <c r="L89" s="26">
-        <v>44776</v>
-      </c>
-      <c r="M89" s="26">
-        <v>44782</v>
-      </c>
-      <c r="N89" s="26">
-        <v>44789</v>
-      </c>
+        <v>44756</v>
+      </c>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
       <c r="O89" s="26"/>
       <c r="P89" s="26"/>
       <c r="Q89" s="26"/>
@@ -6617,10 +6630,10 @@
     </row>
     <row r="90" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>23</v>
@@ -6629,58 +6642,78 @@
         <v>24</v>
       </c>
       <c r="F90" s="77"/>
-      <c r="H90" s="20"/>
-      <c r="I90" t="s">
-        <v>70</v>
+      <c r="H90" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="J90" s="26">
-        <v>44767</v>
+        <v>44757</v>
       </c>
       <c r="K90" s="26">
+        <v>44761</v>
+      </c>
+      <c r="L90" s="26">
+        <v>44768</v>
+      </c>
+      <c r="M90" s="26">
         <v>44776</v>
       </c>
-      <c r="L90" s="26">
-        <v>44802</v>
-      </c>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
-      <c r="U90" s="26"/>
-      <c r="V90" s="26"/>
+      <c r="N90" s="26">
+        <v>44782</v>
+      </c>
+      <c r="O90" s="26">
+        <v>44789</v>
+      </c>
+      <c r="P90" s="26">
+        <v>44798</v>
+      </c>
+      <c r="Q90" s="26">
+        <v>44803</v>
+      </c>
+      <c r="R90" s="26">
+        <v>44810</v>
+      </c>
+      <c r="S90" s="26">
+        <v>44824</v>
+      </c>
+      <c r="T90" s="26">
+        <v>44831</v>
+      </c>
+      <c r="U90" s="26">
+        <v>44840</v>
+      </c>
+      <c r="V90" s="26">
+        <v>44840</v>
+      </c>
       <c r="W90" s="25"/>
       <c r="X90" s="25"/>
     </row>
     <row r="91" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="40">
         <v>3</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="77"/>
-      <c r="H91" s="20"/>
-      <c r="I91" t="s">
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="41" t="s">
         <v>70</v>
       </c>
       <c r="J91" s="26">
-        <v>44768</v>
+        <v>44757</v>
       </c>
       <c r="K91" s="26">
-        <v>44775</v>
+        <v>44761</v>
       </c>
       <c r="L91" s="26">
-        <v>44789</v>
+        <v>44769</v>
       </c>
       <c r="M91" s="26"/>
       <c r="N91" s="26"/>
@@ -6696,14 +6729,14 @@
       <c r="X91" s="25"/>
     </row>
     <row r="92" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B92" s="1">
-        <v>4</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>23</v>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -6714,17 +6747,11 @@
         <v>70</v>
       </c>
       <c r="J92" s="26">
-        <v>44782</v>
-      </c>
-      <c r="K92" s="26">
-        <v>44788</v>
-      </c>
-      <c r="L92" s="26">
-        <v>44795</v>
-      </c>
-      <c r="M92" s="26">
-        <v>44806</v>
-      </c>
+        <v>44761</v>
+      </c>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
       <c r="N92" s="26"/>
       <c r="O92" s="26"/>
       <c r="P92" s="26"/>
@@ -6738,37 +6765,42 @@
       <c r="X92" s="25"/>
     </row>
     <row r="93" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="1">
-        <v>4</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>23</v>
+      <c r="B93" s="9">
+        <v>6</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="77"/>
-      <c r="H93" s="20"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="21"/>
       <c r="I93" t="s">
         <v>70</v>
       </c>
       <c r="J93" s="26">
-        <v>44782</v>
+        <v>44761</v>
       </c>
       <c r="K93" s="26">
-        <v>44789</v>
+        <v>44775</v>
       </c>
       <c r="L93" s="26">
-        <v>44795</v>
+        <v>44791</v>
       </c>
       <c r="M93" s="26">
-        <v>44803</v>
-      </c>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
+        <v>44817</v>
+      </c>
+      <c r="N93" s="26">
+        <v>44826</v>
+      </c>
+      <c r="O93" s="26">
+        <v>44833</v>
+      </c>
       <c r="P93" s="26"/>
       <c r="Q93" s="26"/>
       <c r="R93" s="26"/>
@@ -6780,14 +6812,14 @@
       <c r="X93" s="25"/>
     </row>
     <row r="94" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="9">
-        <v>7</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>78</v>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -6798,19 +6830,19 @@
         <v>70</v>
       </c>
       <c r="J94" s="26">
+        <v>44761</v>
+      </c>
+      <c r="K94" s="26">
+        <v>44769</v>
+      </c>
+      <c r="L94" s="26">
+        <v>44776</v>
+      </c>
+      <c r="M94" s="26">
         <v>44782</v>
       </c>
-      <c r="K94" s="26">
-        <v>44791</v>
-      </c>
-      <c r="L94" s="26">
-        <v>44805</v>
-      </c>
-      <c r="M94" s="26">
-        <v>44812</v>
-      </c>
       <c r="N94" s="26">
-        <v>44831</v>
+        <v>44789</v>
       </c>
       <c r="O94" s="26"/>
       <c r="P94" s="26"/>
@@ -6824,14 +6856,14 @@
       <c r="X94" s="25"/>
     </row>
     <row r="95" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B95" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>78</v>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -6842,12 +6874,14 @@
         <v>70</v>
       </c>
       <c r="J95" s="26">
-        <v>44789</v>
+        <v>44767</v>
       </c>
       <c r="K95" s="26">
-        <v>44796</v>
-      </c>
-      <c r="L95" s="26"/>
+        <v>44776</v>
+      </c>
+      <c r="L95" s="26">
+        <v>44802</v>
+      </c>
       <c r="M95" s="26"/>
       <c r="N95" s="26"/>
       <c r="O95" s="26"/>
@@ -6866,7 +6900,7 @@
         <v>162</v>
       </c>
       <c r="B96" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>23</v>
@@ -6875,40 +6909,27 @@
         <v>24</v>
       </c>
       <c r="F96" s="77"/>
-      <c r="H96" s="21"/>
+      <c r="H96" s="20"/>
+      <c r="I96" t="s">
+        <v>70</v>
+      </c>
       <c r="J96" s="26">
+        <v>44768</v>
+      </c>
+      <c r="K96" s="26">
+        <v>44775</v>
+      </c>
+      <c r="L96" s="26">
         <v>44789</v>
       </c>
-      <c r="K96" s="26">
-        <v>44796</v>
-      </c>
-      <c r="L96" s="26">
-        <v>44805</v>
-      </c>
-      <c r="M96" s="26">
-        <v>44811</v>
-      </c>
-      <c r="N96" s="26">
-        <v>44817</v>
-      </c>
-      <c r="O96" s="26">
-        <v>44824</v>
-      </c>
-      <c r="P96" s="26">
-        <v>44831</v>
-      </c>
-      <c r="Q96" s="26">
-        <v>44839</v>
-      </c>
-      <c r="R96" s="26">
-        <v>44845</v>
-      </c>
-      <c r="S96" s="26">
-        <v>44859</v>
-      </c>
-      <c r="T96" s="26">
-        <v>44865</v>
-      </c>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
       <c r="U96" s="26"/>
       <c r="V96" s="26"/>
       <c r="W96" s="25"/>
@@ -6919,7 +6940,7 @@
         <v>163</v>
       </c>
       <c r="B97" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>23</v>
@@ -6928,49 +6949,31 @@
         <v>24</v>
       </c>
       <c r="F97" s="77"/>
-      <c r="H97" s="23"/>
+      <c r="H97" s="20"/>
       <c r="I97" t="s">
         <v>70</v>
       </c>
       <c r="J97" s="26">
-        <v>44796</v>
+        <v>44782</v>
       </c>
       <c r="K97" s="26">
-        <v>44803</v>
+        <v>44788</v>
       </c>
       <c r="L97" s="26">
-        <v>44810</v>
+        <v>44795</v>
       </c>
       <c r="M97" s="26">
-        <v>44816</v>
-      </c>
-      <c r="N97" s="26">
-        <v>44823</v>
-      </c>
-      <c r="O97" s="26">
-        <v>44830</v>
-      </c>
-      <c r="P97" s="32">
-        <v>44837</v>
-      </c>
-      <c r="Q97" s="32">
-        <v>44846</v>
-      </c>
-      <c r="R97" s="32">
-        <v>44851</v>
-      </c>
-      <c r="S97" s="32">
-        <v>44858</v>
-      </c>
-      <c r="T97" s="32">
-        <v>44865</v>
-      </c>
-      <c r="U97" s="32">
-        <v>44868</v>
-      </c>
-      <c r="V97" s="32">
-        <v>44868</v>
-      </c>
+        <v>44806</v>
+      </c>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26"/>
+      <c r="V97" s="26"/>
       <c r="W97" s="25"/>
       <c r="X97" s="25"/>
     </row>
@@ -6979,7 +6982,7 @@
         <v>164</v>
       </c>
       <c r="B98" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>23</v>
@@ -6993,20 +6996,18 @@
         <v>70</v>
       </c>
       <c r="J98" s="26">
-        <v>44802</v>
+        <v>44782</v>
       </c>
       <c r="K98" s="26">
-        <v>44811</v>
+        <v>44789</v>
       </c>
       <c r="L98" s="26">
-        <v>44817</v>
+        <v>44795</v>
       </c>
       <c r="M98" s="26">
-        <v>44823</v>
-      </c>
-      <c r="N98" s="26">
-        <v>44851</v>
-      </c>
+        <v>44803</v>
+      </c>
+      <c r="N98" s="26"/>
       <c r="O98" s="26"/>
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
@@ -7019,45 +7020,40 @@
       <c r="X98" s="25"/>
     </row>
     <row r="99" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="9">
         <v>7</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>23</v>
+      <c r="C99" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
       <c r="F99" s="77"/>
-      <c r="G99" s="8"/>
       <c r="H99" s="20"/>
       <c r="I99" t="s">
         <v>70</v>
       </c>
       <c r="J99" s="26">
-        <v>44806</v>
+        <v>44782</v>
       </c>
       <c r="K99" s="26">
-        <v>44811</v>
+        <v>44791</v>
       </c>
       <c r="L99" s="26">
-        <v>44832</v>
+        <v>44805</v>
       </c>
       <c r="M99" s="26">
-        <v>44846</v>
+        <v>44812</v>
       </c>
       <c r="N99" s="26">
-        <v>44860</v>
-      </c>
-      <c r="O99" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="P99" s="28" t="s">
-        <v>166</v>
-      </c>
+        <v>44831</v>
+      </c>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26"/>
@@ -7069,10 +7065,10 @@
     </row>
     <row r="100" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>78</v>
@@ -7086,14 +7082,12 @@
         <v>70</v>
       </c>
       <c r="J100" s="26">
-        <v>44806</v>
+        <v>44789</v>
       </c>
       <c r="K100" s="26">
-        <v>44813</v>
-      </c>
-      <c r="L100" s="26">
-        <v>44817</v>
-      </c>
+        <v>44796</v>
+      </c>
+      <c r="L100" s="26"/>
       <c r="M100" s="26"/>
       <c r="N100" s="26"/>
       <c r="O100" s="26"/>
@@ -7109,10 +7103,10 @@
     </row>
     <row r="101" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>23</v>
@@ -7121,58 +7115,51 @@
         <v>24</v>
       </c>
       <c r="F101" s="77"/>
-      <c r="H101" s="20"/>
-      <c r="I101" t="s">
-        <v>70</v>
-      </c>
+      <c r="H101" s="21"/>
       <c r="J101" s="26">
-        <v>44806</v>
+        <v>44789</v>
       </c>
       <c r="K101" s="26">
-        <v>44813</v>
+        <v>44796</v>
       </c>
       <c r="L101" s="26">
-        <v>44816</v>
+        <v>44805</v>
       </c>
       <c r="M101" s="26">
-        <v>44823</v>
+        <v>44811</v>
       </c>
       <c r="N101" s="26">
-        <v>44830</v>
+        <v>44817</v>
       </c>
       <c r="O101" s="26">
-        <v>44837</v>
+        <v>44824</v>
       </c>
       <c r="P101" s="26">
-        <v>44844</v>
+        <v>44831</v>
       </c>
       <c r="Q101" s="26">
-        <v>44851</v>
+        <v>44839</v>
       </c>
       <c r="R101" s="26">
-        <v>44858</v>
+        <v>44845</v>
       </c>
       <c r="S101" s="26">
+        <v>44859</v>
+      </c>
+      <c r="T101" s="26">
         <v>44865</v>
       </c>
-      <c r="T101" s="26">
-        <v>44872</v>
-      </c>
-      <c r="U101" s="26">
-        <v>44879</v>
-      </c>
-      <c r="V101" s="26">
-        <v>44879</v>
-      </c>
+      <c r="U101" s="26"/>
+      <c r="V101" s="26"/>
       <c r="W101" s="25"/>
       <c r="X101" s="25"/>
     </row>
     <row r="102" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>23</v>
@@ -7181,45 +7168,61 @@
         <v>24</v>
       </c>
       <c r="F102" s="77"/>
-      <c r="H102" s="20"/>
+      <c r="H102" s="23"/>
       <c r="I102" t="s">
         <v>70</v>
       </c>
       <c r="J102" s="26">
-        <v>44811</v>
+        <v>44796</v>
       </c>
       <c r="K102" s="26">
+        <v>44803</v>
+      </c>
+      <c r="L102" s="26">
+        <v>44810</v>
+      </c>
+      <c r="M102" s="26">
         <v>44816</v>
       </c>
-      <c r="L102" s="26">
+      <c r="N102" s="26">
+        <v>44823</v>
+      </c>
+      <c r="O102" s="26">
         <v>44830</v>
       </c>
-      <c r="M102" s="26">
-        <v>44847</v>
-      </c>
-      <c r="N102" s="26">
-        <v>44854</v>
-      </c>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="26"/>
-      <c r="S102" s="26"/>
-      <c r="T102" s="26"/>
-      <c r="U102" s="26"/>
-      <c r="V102" s="26"/>
+      <c r="P102" s="32">
+        <v>44837</v>
+      </c>
+      <c r="Q102" s="32">
+        <v>44846</v>
+      </c>
+      <c r="R102" s="32">
+        <v>44851</v>
+      </c>
+      <c r="S102" s="32">
+        <v>44858</v>
+      </c>
+      <c r="T102" s="32">
+        <v>44865</v>
+      </c>
+      <c r="U102" s="32">
+        <v>44868</v>
+      </c>
+      <c r="V102" s="32">
+        <v>44868</v>
+      </c>
       <c r="W102" s="25"/>
       <c r="X102" s="25"/>
     </row>
     <row r="103" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>171</v>
+      <c r="A103" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -7230,12 +7233,20 @@
         <v>70</v>
       </c>
       <c r="J103" s="26">
-        <v>44812</v>
-      </c>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="26"/>
+        <v>44802</v>
+      </c>
+      <c r="K103" s="26">
+        <v>44811</v>
+      </c>
+      <c r="L103" s="26">
+        <v>44817</v>
+      </c>
+      <c r="M103" s="26">
+        <v>44823</v>
+      </c>
+      <c r="N103" s="26">
+        <v>44851</v>
+      </c>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="Q103" s="26"/>
@@ -7248,48 +7259,46 @@
       <c r="X103" s="25"/>
     </row>
     <row r="104" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" s="9">
-        <v>8</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>32</v>
+      <c r="A104" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="1">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
       </c>
       <c r="F104" s="77"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="21"/>
+      <c r="H104" s="20"/>
       <c r="I104" t="s">
         <v>70</v>
       </c>
       <c r="J104" s="26">
-        <v>44847</v>
+        <v>44806</v>
       </c>
       <c r="K104" s="26">
-        <v>44851</v>
+        <v>44811</v>
       </c>
       <c r="L104" s="26">
-        <v>44858</v>
+        <v>44832</v>
       </c>
       <c r="M104" s="26">
-        <v>44865</v>
+        <v>44846</v>
       </c>
       <c r="N104" s="26">
-        <v>44876</v>
-      </c>
-      <c r="O104" s="28">
-        <v>44879</v>
-      </c>
-      <c r="P104" s="28">
-        <v>44887</v>
-      </c>
-      <c r="Q104" s="26">
-        <v>44910</v>
-      </c>
+        <v>44860</v>
+      </c>
+      <c r="O104" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="P104" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q104" s="26"/>
       <c r="R104" s="26"/>
       <c r="S104" s="26"/>
       <c r="T104" s="26"/>
@@ -7300,13 +7309,13 @@
     </row>
     <row r="105" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B105" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -7317,29 +7326,19 @@
         <v>70</v>
       </c>
       <c r="J105" s="26">
-        <v>44853</v>
+        <v>44806</v>
       </c>
       <c r="K105" s="26">
-        <v>44860</v>
+        <v>44813</v>
       </c>
       <c r="L105" s="26">
-        <v>44867</v>
-      </c>
-      <c r="M105" s="26">
-        <v>44874</v>
-      </c>
-      <c r="N105" s="26">
-        <v>44893</v>
-      </c>
-      <c r="O105" s="26">
-        <v>44902</v>
-      </c>
-      <c r="P105" s="26">
-        <v>44909</v>
-      </c>
-      <c r="Q105" s="26">
-        <v>44914</v>
-      </c>
+        <v>44817</v>
+      </c>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="26"/>
       <c r="R105" s="26"/>
       <c r="S105" s="26"/>
       <c r="T105" s="26"/>
@@ -7350,10 +7349,10 @@
     </row>
     <row r="106" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="10">
-        <v>9</v>
+        <v>173</v>
+      </c>
+      <c r="B106" s="1">
+        <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>23</v>
@@ -7367,45 +7366,53 @@
         <v>70</v>
       </c>
       <c r="J106" s="26">
-        <v>44859</v>
+        <v>44806</v>
       </c>
       <c r="K106" s="26">
-        <v>44866</v>
+        <v>44813</v>
       </c>
       <c r="L106" s="26">
-        <v>44873</v>
+        <v>44816</v>
       </c>
       <c r="M106" s="26">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="N106" s="26">
-        <v>44902</v>
+        <v>44830</v>
       </c>
       <c r="O106" s="26">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="P106" s="26">
-        <v>44916</v>
+        <v>44844</v>
       </c>
       <c r="Q106" s="26">
-        <v>44931</v>
+        <v>44851</v>
       </c>
       <c r="R106" s="26">
-        <v>44936</v>
-      </c>
-      <c r="S106" s="26"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="26"/>
-      <c r="V106" s="26"/>
+        <v>44858</v>
+      </c>
+      <c r="S106" s="26">
+        <v>44865</v>
+      </c>
+      <c r="T106" s="26">
+        <v>44872</v>
+      </c>
+      <c r="U106" s="26">
+        <v>44879</v>
+      </c>
+      <c r="V106" s="26">
+        <v>44879</v>
+      </c>
       <c r="W106" s="25"/>
       <c r="X106" s="25"/>
     </row>
-    <row r="107" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>23</v>
@@ -7419,26 +7426,22 @@
         <v>70</v>
       </c>
       <c r="J107" s="26">
-        <v>44875</v>
+        <v>44811</v>
       </c>
       <c r="K107" s="26">
-        <v>44882</v>
+        <v>44816</v>
       </c>
       <c r="L107" s="26">
-        <v>44887</v>
+        <v>44830</v>
       </c>
       <c r="M107" s="26">
-        <v>44894</v>
+        <v>44847</v>
       </c>
       <c r="N107" s="26">
-        <v>44900</v>
-      </c>
-      <c r="O107" s="26">
-        <v>44907</v>
-      </c>
-      <c r="P107" s="26">
-        <v>44923</v>
-      </c>
+        <v>44854</v>
+      </c>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
       <c r="Q107" s="26"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
@@ -7447,20 +7450,16 @@
       <c r="V107" s="26"/>
       <c r="W107" s="25"/>
       <c r="X107" s="25"/>
-      <c r="Z107" s="85" t="s">
+    </row>
+    <row r="108" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="AA107" s="86"/>
-    </row>
-    <row r="108" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B108" s="1">
-        <v>4</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -7471,17 +7470,11 @@
         <v>70</v>
       </c>
       <c r="J108" s="26">
-        <v>44875</v>
-      </c>
-      <c r="K108" s="26">
-        <v>44882</v>
-      </c>
-      <c r="L108" s="26">
-        <v>44887</v>
-      </c>
-      <c r="M108" s="26">
-        <v>44897</v>
-      </c>
+        <v>44812</v>
+      </c>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="26"/>
       <c r="O108" s="26"/>
       <c r="P108" s="26"/>
@@ -7493,88 +7486,67 @@
       <c r="V108" s="26"/>
       <c r="W108" s="25"/>
       <c r="X108" s="25"/>
-      <c r="Z108" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA108" s="37" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="109" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B109" s="10">
-        <v>12</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>23</v>
+      <c r="A109" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="9">
+        <v>8</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
       </c>
       <c r="F109" s="77"/>
-      <c r="H109" s="20"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="21"/>
       <c r="I109" t="s">
         <v>70</v>
       </c>
       <c r="J109" s="26">
-        <v>44880</v>
+        <v>44847</v>
       </c>
       <c r="K109" s="26">
+        <v>44851</v>
+      </c>
+      <c r="L109" s="26">
+        <v>44858</v>
+      </c>
+      <c r="M109" s="26">
+        <v>44865</v>
+      </c>
+      <c r="N109" s="26">
+        <v>44876</v>
+      </c>
+      <c r="O109" s="28">
+        <v>44879</v>
+      </c>
+      <c r="P109" s="28">
         <v>44887</v>
       </c>
-      <c r="L109" s="26">
-        <v>44893</v>
-      </c>
-      <c r="M109" s="26">
-        <v>44900</v>
-      </c>
-      <c r="N109" s="26">
-        <v>44907</v>
-      </c>
-      <c r="O109" s="26">
-        <v>44914</v>
-      </c>
-      <c r="P109" s="26">
-        <v>44922</v>
-      </c>
       <c r="Q109" s="26">
-        <v>44929</v>
-      </c>
-      <c r="R109" s="26">
-        <v>44936</v>
-      </c>
-      <c r="S109" s="26">
-        <v>44943</v>
-      </c>
-      <c r="T109" s="26">
-        <v>44951</v>
-      </c>
-      <c r="U109" s="26">
-        <v>44957</v>
-      </c>
-      <c r="V109" s="26">
-        <v>44957</v>
-      </c>
+        <v>44910</v>
+      </c>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="26"/>
       <c r="W109" s="25"/>
       <c r="X109" s="25"/>
-      <c r="Z109" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA109" s="39" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="110" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" s="11">
-        <v>1</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>69</v>
+      <c r="A110" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" s="9">
+        <v>8</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
@@ -7585,15 +7557,29 @@
         <v>70</v>
       </c>
       <c r="J110" s="26">
-        <v>44882</v>
-      </c>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
+        <v>44853</v>
+      </c>
+      <c r="K110" s="26">
+        <v>44860</v>
+      </c>
+      <c r="L110" s="26">
+        <v>44867</v>
+      </c>
+      <c r="M110" s="26">
+        <v>44874</v>
+      </c>
+      <c r="N110" s="26">
+        <v>44893</v>
+      </c>
+      <c r="O110" s="26">
+        <v>44902</v>
+      </c>
+      <c r="P110" s="26">
+        <v>44909</v>
+      </c>
+      <c r="Q110" s="26">
+        <v>44914</v>
+      </c>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
       <c r="T110" s="26"/>
@@ -7601,19 +7587,13 @@
       <c r="V110" s="26"/>
       <c r="W110" s="25"/>
       <c r="X110" s="25"/>
-      <c r="Z110" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA110" s="39" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="111" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B111" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>23</v>
@@ -7622,64 +7602,50 @@
         <v>24</v>
       </c>
       <c r="F111" s="77"/>
-      <c r="H111" s="21"/>
+      <c r="H111" s="20"/>
       <c r="I111" t="s">
         <v>70</v>
       </c>
       <c r="J111" s="26">
-        <v>44900</v>
+        <v>44859</v>
       </c>
       <c r="K111" s="26">
+        <v>44866</v>
+      </c>
+      <c r="L111" s="26">
+        <v>44873</v>
+      </c>
+      <c r="M111" s="26">
+        <v>44893</v>
+      </c>
+      <c r="N111" s="26">
+        <v>44902</v>
+      </c>
+      <c r="O111" s="26">
         <v>44907</v>
       </c>
-      <c r="L111" s="26">
-        <v>44914</v>
-      </c>
-      <c r="M111" s="26">
-        <v>44924</v>
-      </c>
-      <c r="N111" s="26">
-        <v>44929</v>
-      </c>
-      <c r="O111" s="26">
+      <c r="P111" s="26">
+        <v>44916</v>
+      </c>
+      <c r="Q111" s="26">
+        <v>44931</v>
+      </c>
+      <c r="R111" s="26">
         <v>44936</v>
       </c>
-      <c r="P111" s="26">
-        <v>44943</v>
-      </c>
-      <c r="Q111" s="26">
-        <v>44951</v>
-      </c>
-      <c r="R111" s="26">
-        <v>44957</v>
-      </c>
-      <c r="S111" s="26">
-        <v>44965</v>
-      </c>
-      <c r="T111" s="26">
-        <v>44972</v>
-      </c>
-      <c r="U111" s="26">
-        <v>44980</v>
-      </c>
-      <c r="V111" s="26">
-        <v>44980</v>
-      </c>
+      <c r="S111" s="26"/>
+      <c r="T111" s="26"/>
+      <c r="U111" s="26"/>
+      <c r="V111" s="26"/>
       <c r="W111" s="25"/>
       <c r="X111" s="25"/>
-      <c r="Z111" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA111" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="10">
-        <v>12</v>
+        <v>180</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>23</v>
@@ -7688,64 +7654,50 @@
         <v>24</v>
       </c>
       <c r="F112" s="77"/>
-      <c r="H112" s="21"/>
+      <c r="H112" s="20"/>
       <c r="I112" t="s">
         <v>70</v>
       </c>
       <c r="J112" s="26">
-        <v>44901</v>
+        <v>44875</v>
       </c>
       <c r="K112" s="26">
-        <v>44908</v>
+        <v>44882</v>
       </c>
       <c r="L112" s="26">
-        <v>44914</v>
+        <v>44887</v>
       </c>
       <c r="M112" s="26">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="N112" s="26">
-        <v>44929</v>
+        <v>44900</v>
       </c>
       <c r="O112" s="26">
-        <v>44936</v>
+        <v>44907</v>
       </c>
       <c r="P112" s="26">
-        <v>44943</v>
-      </c>
-      <c r="Q112" s="26">
-        <v>44950</v>
-      </c>
-      <c r="R112" s="26">
-        <v>44956</v>
-      </c>
-      <c r="S112" s="26">
-        <v>44964</v>
-      </c>
-      <c r="T112" s="26">
-        <v>44970</v>
-      </c>
-      <c r="U112" s="26">
-        <v>44977</v>
-      </c>
-      <c r="V112" s="26">
-        <v>44977</v>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="Q112" s="26"/>
+      <c r="R112" s="26"/>
+      <c r="S112" s="26"/>
+      <c r="T112" s="26"/>
+      <c r="U112" s="26"/>
+      <c r="V112" s="26"/>
       <c r="W112" s="25"/>
       <c r="X112" s="25"/>
-      <c r="Z112" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA112" s="38" t="s">
-        <v>188</v>
-      </c>
+      <c r="Z112" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA112" s="86"/>
     </row>
     <row r="113" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="10">
-        <v>11</v>
+        <v>182</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
@@ -7754,61 +7706,49 @@
         <v>24</v>
       </c>
       <c r="F113" s="77"/>
-      <c r="H113" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="H113" s="20"/>
       <c r="I113" t="s">
         <v>70</v>
       </c>
       <c r="J113" s="26">
-        <v>44907</v>
+        <v>44875</v>
       </c>
       <c r="K113" s="26">
-        <v>44925</v>
+        <v>44882</v>
       </c>
       <c r="L113" s="26">
-        <v>44932</v>
+        <v>44887</v>
       </c>
       <c r="M113" s="26">
-        <v>44935</v>
-      </c>
-      <c r="N113" s="26">
-        <v>44942</v>
-      </c>
-      <c r="O113" s="26">
-        <v>44949</v>
-      </c>
-      <c r="P113" s="26">
-        <v>44956</v>
-      </c>
-      <c r="Q113" s="26">
-        <v>44963</v>
-      </c>
-      <c r="R113" s="26">
-        <v>44974</v>
-      </c>
-      <c r="S113" s="26">
-        <v>44977</v>
-      </c>
-      <c r="T113" s="26">
-        <v>44984</v>
-      </c>
+        <v>44897</v>
+      </c>
+      <c r="N113" s="26"/>
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="26"/>
+      <c r="S113" s="26"/>
+      <c r="T113" s="26"/>
       <c r="U113" s="26"/>
       <c r="V113" s="26"/>
       <c r="W113" s="25"/>
       <c r="X113" s="25"/>
-      <c r="Z113" s="38"/>
-      <c r="AA113" s="38"/>
+      <c r="Z113" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA113" s="37" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="114" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B114" s="9">
-        <v>6</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>78</v>
+      <c r="A114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="10">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -7819,71 +7759,80 @@
         <v>70</v>
       </c>
       <c r="J114" s="26">
+        <v>44880</v>
+      </c>
+      <c r="K114" s="26">
+        <v>44887</v>
+      </c>
+      <c r="L114" s="26">
+        <v>44893</v>
+      </c>
+      <c r="M114" s="26">
+        <v>44900</v>
+      </c>
+      <c r="N114" s="26">
+        <v>44907</v>
+      </c>
+      <c r="O114" s="26">
         <v>44914</v>
       </c>
-      <c r="K114" s="26">
+      <c r="P114" s="26">
         <v>44922</v>
       </c>
-      <c r="L114" s="26">
+      <c r="Q114" s="26">
         <v>44929</v>
       </c>
-      <c r="M114" s="26">
-        <v>44935</v>
-      </c>
-      <c r="N114" s="26">
-        <v>44942</v>
-      </c>
-      <c r="O114" s="26">
-        <v>44949</v>
-      </c>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="26"/>
-      <c r="T114" s="26"/>
-      <c r="U114" s="26"/>
-      <c r="V114" s="26"/>
+      <c r="R114" s="26">
+        <v>44936</v>
+      </c>
+      <c r="S114" s="26">
+        <v>44943</v>
+      </c>
+      <c r="T114" s="26">
+        <v>44951</v>
+      </c>
+      <c r="U114" s="26">
+        <v>44957</v>
+      </c>
+      <c r="V114" s="26">
+        <v>44957</v>
+      </c>
       <c r="W114" s="25"/>
       <c r="X114" s="25"/>
+      <c r="Z114" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA114" s="39" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="115" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B115" s="9">
-        <v>7</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>78</v>
+      <c r="A115" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="11">
+        <v>1</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
       </c>
       <c r="F115" s="77"/>
+      <c r="H115" s="20"/>
       <c r="I115" t="s">
         <v>70</v>
       </c>
       <c r="J115" s="26">
-        <v>44922</v>
-      </c>
-      <c r="K115" s="26">
-        <v>44935</v>
-      </c>
-      <c r="L115" s="26">
-        <v>44942</v>
-      </c>
-      <c r="M115" s="26">
-        <v>44949</v>
-      </c>
-      <c r="N115" s="26">
-        <v>44956</v>
-      </c>
-      <c r="O115" s="26">
-        <v>44971</v>
-      </c>
-      <c r="P115" s="26">
-        <v>44991</v>
-      </c>
+        <v>44882</v>
+      </c>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26"/>
@@ -7892,183 +7841,241 @@
       <c r="V115" s="26"/>
       <c r="W115" s="25"/>
       <c r="X115" s="25"/>
+      <c r="Z115" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA115" s="39" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="116" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B116" s="9">
-        <v>8</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>78</v>
+      <c r="A116" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" s="10">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="77"/>
+      <c r="H116" s="21"/>
       <c r="I116" t="s">
         <v>70</v>
       </c>
       <c r="J116" s="26">
-        <v>44925</v>
+        <v>44900</v>
       </c>
       <c r="K116" s="26">
-        <v>44932</v>
+        <v>44907</v>
       </c>
       <c r="L116" s="26">
-        <v>44935</v>
+        <v>44914</v>
       </c>
       <c r="M116" s="26">
-        <v>44953</v>
+        <v>44924</v>
       </c>
       <c r="N116" s="26">
-        <v>44960</v>
+        <v>44929</v>
       </c>
       <c r="O116" s="26">
-        <v>44967</v>
+        <v>44936</v>
       </c>
       <c r="P116" s="26">
-        <v>44974</v>
+        <v>44943</v>
       </c>
       <c r="Q116" s="26">
-        <v>44981</v>
-      </c>
-      <c r="R116" s="26"/>
-      <c r="S116" s="26"/>
-      <c r="T116" s="26"/>
-      <c r="U116" s="26"/>
-      <c r="V116" s="26"/>
+        <v>44951</v>
+      </c>
+      <c r="R116" s="26">
+        <v>44957</v>
+      </c>
+      <c r="S116" s="26">
+        <v>44965</v>
+      </c>
+      <c r="T116" s="26">
+        <v>44972</v>
+      </c>
+      <c r="U116" s="26">
+        <v>44980</v>
+      </c>
+      <c r="V116" s="26">
+        <v>44980</v>
+      </c>
       <c r="W116" s="25"/>
       <c r="X116" s="25"/>
+      <c r="Z116" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA116" s="39" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="117" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B117" s="9">
-        <v>3</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>78</v>
+      <c r="A117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" s="10">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="77"/>
+      <c r="H117" s="21"/>
       <c r="I117" t="s">
         <v>70</v>
       </c>
       <c r="J117" s="26">
-        <v>44944</v>
+        <v>44901</v>
       </c>
       <c r="K117" s="26">
-        <v>44951</v>
+        <v>44908</v>
       </c>
       <c r="L117" s="26">
-        <v>44958</v>
-      </c>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="26"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="26"/>
-      <c r="V117" s="26"/>
+        <v>44914</v>
+      </c>
+      <c r="M117" s="26">
+        <v>44922</v>
+      </c>
+      <c r="N117" s="26">
+        <v>44929</v>
+      </c>
+      <c r="O117" s="26">
+        <v>44936</v>
+      </c>
+      <c r="P117" s="26">
+        <v>44943</v>
+      </c>
+      <c r="Q117" s="26">
+        <v>44950</v>
+      </c>
+      <c r="R117" s="26">
+        <v>44956</v>
+      </c>
+      <c r="S117" s="26">
+        <v>44964</v>
+      </c>
+      <c r="T117" s="26">
+        <v>44970</v>
+      </c>
+      <c r="U117" s="26">
+        <v>44977</v>
+      </c>
+      <c r="V117" s="26">
+        <v>44977</v>
+      </c>
       <c r="W117" s="25"/>
       <c r="X117" s="25"/>
+      <c r="Z117" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA117" s="38" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="118" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B118" s="9">
+      <c r="A118" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" s="10">
         <v>11</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>78</v>
+      <c r="C118" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
       </c>
       <c r="F118" s="77"/>
+      <c r="H118" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="I118" t="s">
         <v>70</v>
       </c>
       <c r="J118" s="26">
-        <v>44944</v>
+        <v>44907</v>
       </c>
       <c r="K118" s="26">
+        <v>44925</v>
+      </c>
+      <c r="L118" s="26">
+        <v>44932</v>
+      </c>
+      <c r="M118" s="26">
+        <v>44935</v>
+      </c>
+      <c r="N118" s="26">
+        <v>44942</v>
+      </c>
+      <c r="O118" s="26">
         <v>44949</v>
       </c>
-      <c r="L118" s="26">
+      <c r="P118" s="26">
         <v>44956</v>
       </c>
-      <c r="M118" s="26">
-        <v>44967</v>
-      </c>
-      <c r="N118" s="26">
-        <v>44970</v>
-      </c>
-      <c r="O118" s="26">
+      <c r="Q118" s="26">
+        <v>44963</v>
+      </c>
+      <c r="R118" s="26">
+        <v>44974</v>
+      </c>
+      <c r="S118" s="26">
         <v>44977</v>
       </c>
-      <c r="P118" s="26">
-        <v>44987</v>
-      </c>
-      <c r="Q118" s="26">
-        <v>44991</v>
-      </c>
-      <c r="R118" s="26">
-        <v>44998</v>
-      </c>
-      <c r="S118" s="26">
-        <v>45008</v>
-      </c>
       <c r="T118" s="26">
-        <v>45013</v>
+        <v>44984</v>
       </c>
       <c r="U118" s="26"/>
       <c r="V118" s="26"/>
       <c r="W118" s="25"/>
       <c r="X118" s="25"/>
+      <c r="Z118" s="38"/>
+      <c r="AA118" s="38"/>
     </row>
     <row r="119" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B119" s="10">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>23</v>
+      <c r="B119" s="9">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
       </c>
       <c r="F119" s="77"/>
+      <c r="H119" s="20"/>
       <c r="I119" t="s">
         <v>70</v>
       </c>
       <c r="J119" s="26">
-        <v>44945</v>
+        <v>44914</v>
       </c>
       <c r="K119" s="26">
-        <v>44950</v>
+        <v>44922</v>
       </c>
       <c r="L119" s="26">
-        <v>44957</v>
+        <v>44929</v>
       </c>
       <c r="M119" s="26">
-        <v>44964</v>
+        <v>44935</v>
       </c>
       <c r="N119" s="26">
-        <v>44971</v>
-      </c>
-      <c r="O119" s="26"/>
+        <v>44942</v>
+      </c>
+      <c r="O119" s="26">
+        <v>44949</v>
+      </c>
       <c r="P119" s="26"/>
       <c r="Q119" s="26"/>
       <c r="R119" s="26"/>
@@ -8080,42 +8087,43 @@
       <c r="X119" s="25"/>
     </row>
     <row r="120" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B120" s="10">
-        <v>5</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>55</v>
+      <c r="B120" s="9">
+        <v>7</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
       </c>
-      <c r="E120" t="s">
-        <v>198</v>
-      </c>
       <c r="F120" s="77"/>
       <c r="I120" t="s">
         <v>70</v>
       </c>
       <c r="J120" s="26">
-        <v>45131</v>
+        <v>44922</v>
       </c>
       <c r="K120" s="26">
-        <v>45138</v>
+        <v>44935</v>
       </c>
       <c r="L120" s="26">
-        <v>45145</v>
+        <v>44942</v>
       </c>
       <c r="M120" s="26">
-        <v>45152</v>
+        <v>44949</v>
       </c>
       <c r="N120" s="26">
-        <v>45159</v>
-      </c>
-      <c r="O120" s="26"/>
-      <c r="P120" s="26"/>
+        <v>44956</v>
+      </c>
+      <c r="O120" s="26">
+        <v>44971</v>
+      </c>
+      <c r="P120" s="26">
+        <v>44991</v>
+      </c>
       <c r="Q120" s="26"/>
       <c r="R120" s="26"/>
       <c r="S120" s="26"/>
@@ -8126,39 +8134,46 @@
       <c r="X120" s="25"/>
     </row>
     <row r="121" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B121" s="10">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>55</v>
+      <c r="A121" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" s="9">
+        <v>8</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
       </c>
-      <c r="E121" t="s">
-        <v>200</v>
-      </c>
       <c r="F121" s="77"/>
       <c r="I121" t="s">
         <v>70</v>
       </c>
       <c r="J121" s="26">
-        <v>45131</v>
+        <v>44925</v>
       </c>
       <c r="K121" s="26">
-        <v>45138</v>
+        <v>44932</v>
       </c>
       <c r="L121" s="26">
-        <v>45145</v>
-      </c>
-      <c r="M121" s="26"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
-      <c r="Q121" s="26"/>
+        <v>44935</v>
+      </c>
+      <c r="M121" s="26">
+        <v>44953</v>
+      </c>
+      <c r="N121" s="26">
+        <v>44960</v>
+      </c>
+      <c r="O121" s="26">
+        <v>44967</v>
+      </c>
+      <c r="P121" s="26">
+        <v>44974</v>
+      </c>
+      <c r="Q121" s="26">
+        <v>44981</v>
+      </c>
       <c r="R121" s="26"/>
       <c r="S121" s="26"/>
       <c r="T121" s="26"/>
@@ -8168,40 +8183,33 @@
       <c r="X121" s="25"/>
     </row>
     <row r="122" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B122" s="10">
-        <v>5</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>55</v>
+      <c r="A122" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="9">
+        <v>3</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
       </c>
-      <c r="E122" t="s">
-        <v>198</v>
-      </c>
       <c r="F122" s="77"/>
       <c r="I122" t="s">
         <v>70</v>
       </c>
       <c r="J122" s="26">
-        <v>45132</v>
+        <v>44944</v>
       </c>
       <c r="K122" s="26">
-        <v>45139</v>
+        <v>44951</v>
       </c>
       <c r="L122" s="26">
-        <v>45146</v>
-      </c>
-      <c r="M122" s="26">
-        <v>45153</v>
-      </c>
-      <c r="N122" s="26">
-        <v>45159</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="M122" s="26"/>
+      <c r="N122" s="26"/>
       <c r="O122" s="26"/>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
@@ -8214,46 +8222,55 @@
       <c r="X122" s="25"/>
     </row>
     <row r="123" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B123" s="10">
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>55</v>
+      <c r="A123" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="9">
+        <v>11</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
       </c>
-      <c r="E123" t="s">
-        <v>203</v>
-      </c>
       <c r="F123" s="77"/>
       <c r="I123" t="s">
         <v>70</v>
       </c>
       <c r="J123" s="26">
-        <v>45132</v>
+        <v>44944</v>
       </c>
       <c r="K123" s="26">
-        <v>45139</v>
+        <v>44949</v>
       </c>
       <c r="L123" s="26">
-        <v>45146</v>
+        <v>44956</v>
       </c>
       <c r="M123" s="26">
-        <v>45153</v>
+        <v>44967</v>
       </c>
       <c r="N123" s="26">
-        <v>45160</v>
-      </c>
-      <c r="O123" s="26"/>
-      <c r="P123" s="26"/>
-      <c r="Q123" s="26"/>
-      <c r="R123" s="26"/>
-      <c r="S123" s="26"/>
-      <c r="T123" s="26"/>
+        <v>44970</v>
+      </c>
+      <c r="O123" s="26">
+        <v>44977</v>
+      </c>
+      <c r="P123" s="26">
+        <v>44987</v>
+      </c>
+      <c r="Q123" s="26">
+        <v>44991</v>
+      </c>
+      <c r="R123" s="26">
+        <v>44998</v>
+      </c>
+      <c r="S123" s="26">
+        <v>45008</v>
+      </c>
+      <c r="T123" s="26">
+        <v>45013</v>
+      </c>
       <c r="U123" s="26"/>
       <c r="V123" s="26"/>
       <c r="W123" s="25"/>
@@ -8261,38 +8278,35 @@
     </row>
     <row r="124" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B124" s="10">
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
       </c>
-      <c r="E124" t="s">
-        <v>205</v>
-      </c>
       <c r="F124" s="77"/>
       <c r="I124" t="s">
         <v>70</v>
       </c>
       <c r="J124" s="26">
-        <v>45132</v>
+        <v>44945</v>
       </c>
       <c r="K124" s="26">
-        <v>45139</v>
+        <v>44950</v>
       </c>
       <c r="L124" s="26">
-        <v>45146</v>
+        <v>44957</v>
       </c>
       <c r="M124" s="26">
-        <v>45153</v>
+        <v>44964</v>
       </c>
       <c r="N124" s="26">
-        <v>45160</v>
+        <v>44971</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
@@ -8307,7 +8321,7 @@
     </row>
     <row r="125" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B125" s="10">
         <v>5</v>
@@ -8319,14 +8333,14 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F125" s="77"/>
       <c r="I125" t="s">
         <v>70</v>
       </c>
       <c r="J125" s="26">
-        <v>45133</v>
+        <v>45131</v>
       </c>
       <c r="K125" s="26">
         <v>45138</v>
@@ -8353,7 +8367,7 @@
     </row>
     <row r="126" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B126" s="10">
         <v>3</v>
@@ -8372,13 +8386,13 @@
         <v>70</v>
       </c>
       <c r="J126" s="26">
+        <v>45131</v>
+      </c>
+      <c r="K126" s="26">
         <v>45138</v>
       </c>
-      <c r="K126" s="26">
-        <v>45149</v>
-      </c>
       <c r="L126" s="26">
-        <v>45159</v>
+        <v>45145</v>
       </c>
       <c r="M126" s="26"/>
       <c r="N126" s="26"/>
@@ -8395,10 +8409,10 @@
     </row>
     <row r="127" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B127" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>55</v>
@@ -8407,19 +8421,27 @@
         <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F127" s="77"/>
       <c r="I127" t="s">
         <v>70</v>
       </c>
       <c r="J127" s="26">
+        <v>45132</v>
+      </c>
+      <c r="K127" s="26">
         <v>45139</v>
       </c>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26"/>
-      <c r="N127" s="26"/>
+      <c r="L127" s="26">
+        <v>45146</v>
+      </c>
+      <c r="M127" s="26">
+        <v>45153</v>
+      </c>
+      <c r="N127" s="26">
+        <v>45159</v>
+      </c>
       <c r="O127" s="26"/>
       <c r="P127" s="26"/>
       <c r="Q127" s="26"/>
@@ -8433,10 +8455,10 @@
     </row>
     <row r="128" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B128" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>55</v>
@@ -8445,23 +8467,27 @@
         <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F128" s="77"/>
       <c r="I128" t="s">
         <v>70</v>
       </c>
       <c r="J128" s="26">
+        <v>45132</v>
+      </c>
+      <c r="K128" s="26">
         <v>45139</v>
       </c>
-      <c r="K128" s="26">
+      <c r="L128" s="26">
         <v>45146</v>
       </c>
-      <c r="L128" s="26">
+      <c r="M128" s="26">
         <v>45153</v>
       </c>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
+      <c r="N128" s="26">
+        <v>45160</v>
+      </c>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="Q128" s="26"/>
@@ -8475,10 +8501,10 @@
     </row>
     <row r="129" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B129" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>55</v>
@@ -8487,19 +8513,27 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F129" s="77"/>
       <c r="I129" t="s">
         <v>70</v>
       </c>
       <c r="J129" s="26">
+        <v>45132</v>
+      </c>
+      <c r="K129" s="26">
+        <v>45139</v>
+      </c>
+      <c r="L129" s="26">
+        <v>45146</v>
+      </c>
+      <c r="M129" s="26">
         <v>45153</v>
       </c>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26"/>
+      <c r="N129" s="26">
+        <v>45160</v>
+      </c>
       <c r="O129" s="26"/>
       <c r="P129" s="26"/>
       <c r="Q129" s="26"/>
@@ -8516,7 +8550,7 @@
         <v>211</v>
       </c>
       <c r="B130" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>55</v>
@@ -8525,24 +8559,36 @@
         <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F130" s="77"/>
       <c r="I130" t="s">
         <v>70</v>
       </c>
       <c r="J130" s="26">
+        <v>45133</v>
+      </c>
+      <c r="K130" s="26">
+        <v>45138</v>
+      </c>
+      <c r="L130" s="26">
         <v>45145</v>
       </c>
-      <c r="K130" s="26">
-        <v>45160</v>
-      </c>
-      <c r="L130" s="26"/>
-      <c r="M130" s="26"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="26"/>
-      <c r="P130" s="26"/>
-      <c r="Q130" s="26"/>
+      <c r="M130" s="26">
+        <v>45152</v>
+      </c>
+      <c r="N130" s="26">
+        <v>45159</v>
+      </c>
+      <c r="O130" s="26">
+        <v>45166</v>
+      </c>
+      <c r="P130" s="26">
+        <v>45174</v>
+      </c>
+      <c r="Q130" s="26">
+        <v>45180</v>
+      </c>
       <c r="R130" s="26"/>
       <c r="S130" s="26"/>
       <c r="T130" s="26"/>
@@ -8553,10 +8599,10 @@
     </row>
     <row r="131" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B131" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>55</v>
@@ -8565,20 +8611,30 @@
         <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F131" s="77"/>
       <c r="I131" t="s">
         <v>70</v>
       </c>
       <c r="J131" s="26">
-        <v>45154</v>
-      </c>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26"/>
+        <v>45138</v>
+      </c>
+      <c r="K131" s="26">
+        <v>45149</v>
+      </c>
+      <c r="L131" s="26">
+        <v>45159</v>
+      </c>
+      <c r="M131" s="26">
+        <v>45166</v>
+      </c>
+      <c r="N131" s="26">
+        <v>45174</v>
+      </c>
+      <c r="O131" s="26">
+        <v>45180</v>
+      </c>
       <c r="P131" s="26"/>
       <c r="Q131" s="26"/>
       <c r="R131" s="26"/>
@@ -8591,7 +8647,7 @@
     </row>
     <row r="132" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B132" s="10">
         <v>1</v>
@@ -8602,12 +8658,15 @@
       <c r="D132" t="s">
         <v>24</v>
       </c>
+      <c r="E132" t="s">
+        <v>210</v>
+      </c>
       <c r="F132" s="77"/>
       <c r="I132" t="s">
         <v>70</v>
       </c>
       <c r="J132" s="26">
-        <v>45154</v>
+        <v>45139</v>
       </c>
       <c r="K132" s="26"/>
       <c r="L132" s="26"/>
@@ -8625,41 +8684,43 @@
       <c r="X132" s="25"/>
     </row>
     <row r="133" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B133" s="9">
-        <v>2</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>32</v>
+      <c r="A133" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" s="10">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D133" t="s">
         <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>215</v>
-      </c>
-      <c r="F133" s="77">
-        <v>45152</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H133" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="F133" s="77"/>
       <c r="I133" t="s">
         <v>70</v>
       </c>
       <c r="J133" s="26">
-        <v>44859</v>
-      </c>
-      <c r="K133" s="28">
-        <v>44867</v>
-      </c>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="26"/>
+        <v>45139</v>
+      </c>
+      <c r="K133" s="26">
+        <v>45146</v>
+      </c>
+      <c r="L133" s="26">
+        <v>45153</v>
+      </c>
+      <c r="M133" s="26">
+        <v>45162</v>
+      </c>
+      <c r="N133" s="26">
+        <v>45167</v>
+      </c>
+      <c r="O133" s="26">
+        <v>45174</v>
+      </c>
       <c r="P133" s="26"/>
       <c r="Q133" s="26"/>
       <c r="R133" s="26"/>
@@ -8671,36 +8732,37 @@
       <c r="X133" s="25"/>
     </row>
     <row r="134" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B134" s="9">
-        <v>1</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>69</v>
+      <c r="A134" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" s="10">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D134" t="s">
         <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>218</v>
-      </c>
-      <c r="F134" s="77">
-        <v>45152</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>216</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F134" s="77"/>
       <c r="I134" t="s">
         <v>70</v>
       </c>
       <c r="J134" s="26">
-        <v>44868</v>
-      </c>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
+        <v>45153</v>
+      </c>
+      <c r="K134" s="26">
+        <v>45162</v>
+      </c>
+      <c r="L134" s="26">
+        <v>45169</v>
+      </c>
+      <c r="M134" s="26">
+        <v>45174</v>
+      </c>
       <c r="N134" s="26"/>
       <c r="O134" s="26"/>
       <c r="P134" s="26"/>
@@ -8714,42 +8776,40 @@
       <c r="X134" s="25"/>
     </row>
     <row r="135" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" s="9">
-        <v>2</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>78</v>
+      <c r="A135" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B135" s="10">
+        <v>5</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
       <c r="E135" t="s">
-        <v>215</v>
-      </c>
-      <c r="F135" s="77">
-        <v>45152</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H135" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="F135" s="77"/>
       <c r="I135" t="s">
         <v>70</v>
       </c>
       <c r="J135" s="26">
-        <v>44867</v>
+        <v>45145</v>
       </c>
       <c r="K135" s="26">
-        <v>44895</v>
-      </c>
-      <c r="L135" s="28">
-        <v>44944</v>
-      </c>
-      <c r="M135" s="26"/>
-      <c r="N135" s="26"/>
+        <v>45160</v>
+      </c>
+      <c r="L135" s="26">
+        <v>45166</v>
+      </c>
+      <c r="M135" s="26">
+        <v>45174</v>
+      </c>
+      <c r="N135" s="26">
+        <v>45180</v>
+      </c>
       <c r="O135" s="26"/>
       <c r="P135" s="26"/>
       <c r="Q135" s="26"/>
@@ -8762,35 +8822,30 @@
       <c r="X135" s="25"/>
     </row>
     <row r="136" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B136" s="9">
+      <c r="A136" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B136" s="10">
         <v>2</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>78</v>
+      <c r="C136" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>215</v>
-      </c>
-      <c r="F136" s="77">
-        <v>45152</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>216</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F136" s="77"/>
       <c r="I136" t="s">
         <v>70</v>
       </c>
       <c r="J136" s="26">
-        <v>44867</v>
+        <v>45154</v>
       </c>
       <c r="K136" s="26">
-        <v>44895</v>
+        <v>45162</v>
       </c>
       <c r="L136" s="26"/>
       <c r="M136" s="26"/>
@@ -8807,896 +8862,809 @@
       <c r="X136" s="25"/>
     </row>
     <row r="137" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B137" s="9">
-        <v>2</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D137" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E137" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="F137" s="77">
-        <v>45141.635844907411</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="A137" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" s="10">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="77"/>
       <c r="I137" t="s">
         <v>70</v>
       </c>
-      <c r="J137" s="54">
-        <v>44965</v>
-      </c>
-      <c r="K137" s="54">
-        <v>44993</v>
-      </c>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
-      <c r="P137" s="54"/>
-      <c r="Q137" s="54"/>
-      <c r="R137" s="54"/>
-      <c r="S137" s="54"/>
-      <c r="T137" s="54"/>
-      <c r="U137" s="54"/>
-      <c r="V137" s="54"/>
+      <c r="J137" s="26">
+        <v>45154</v>
+      </c>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="26"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="26"/>
+      <c r="P137" s="26"/>
+      <c r="Q137" s="26"/>
+      <c r="R137" s="26"/>
+      <c r="S137" s="26"/>
+      <c r="T137" s="26"/>
+      <c r="U137" s="26"/>
+      <c r="V137" s="26"/>
       <c r="W137" s="25"/>
       <c r="X137" s="25"/>
     </row>
     <row r="138" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="77"/>
+      <c r="I138" t="s">
+        <v>70</v>
+      </c>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="26"/>
+      <c r="N138" s="26"/>
+      <c r="O138" s="26"/>
+      <c r="P138" s="26"/>
+      <c r="Q138" s="26"/>
+      <c r="R138" s="26"/>
+      <c r="S138" s="26"/>
+      <c r="T138" s="26"/>
+      <c r="U138" s="26"/>
+      <c r="V138" s="26"/>
+      <c r="W138" s="25"/>
+      <c r="X138" s="25"/>
+    </row>
+    <row r="139" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" s="10"/>
+      <c r="C139" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="77"/>
+      <c r="I139" t="s">
+        <v>70</v>
+      </c>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="26"/>
+      <c r="M139" s="26"/>
+      <c r="N139" s="26"/>
+      <c r="O139" s="26"/>
+      <c r="P139" s="26"/>
+      <c r="Q139" s="26"/>
+      <c r="R139" s="26"/>
+      <c r="S139" s="26"/>
+      <c r="T139" s="26"/>
+      <c r="U139" s="26"/>
+      <c r="V139" s="26"/>
+      <c r="W139" s="25"/>
+      <c r="X139" s="25"/>
+    </row>
+    <row r="140" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="77"/>
+      <c r="I140" t="s">
+        <v>70</v>
+      </c>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="26"/>
+      <c r="P140" s="26"/>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="26"/>
+      <c r="S140" s="26"/>
+      <c r="T140" s="26"/>
+      <c r="U140" s="26"/>
+      <c r="V140" s="26"/>
+      <c r="W140" s="25"/>
+      <c r="X140" s="25"/>
+    </row>
+    <row r="141" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B141" s="10"/>
+      <c r="C141" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="77"/>
+      <c r="I141" t="s">
+        <v>70</v>
+      </c>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
+      <c r="N141" s="26"/>
+      <c r="O141" s="26"/>
+      <c r="P141" s="26"/>
+      <c r="Q141" s="26"/>
+      <c r="R141" s="26"/>
+      <c r="S141" s="26"/>
+      <c r="T141" s="26"/>
+      <c r="U141" s="26"/>
+      <c r="V141" s="26"/>
+      <c r="W141" s="25"/>
+      <c r="X141" s="25"/>
+    </row>
+    <row r="142" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B142" s="10">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="77"/>
+      <c r="I142" t="s">
+        <v>70</v>
+      </c>
+      <c r="J142" s="26">
+        <v>45174</v>
+      </c>
+      <c r="K142" s="26"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="26"/>
+      <c r="N142" s="26"/>
+      <c r="O142" s="26"/>
+      <c r="P142" s="26"/>
+      <c r="Q142" s="26"/>
+      <c r="R142" s="26"/>
+      <c r="S142" s="26"/>
+      <c r="T142" s="26"/>
+      <c r="U142" s="26"/>
+      <c r="V142" s="26"/>
+      <c r="W142" s="25"/>
+      <c r="X142" s="25"/>
+    </row>
+    <row r="143" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B143" s="10">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="77"/>
+      <c r="I143" t="s">
+        <v>70</v>
+      </c>
+      <c r="J143" s="26">
+        <v>45174</v>
+      </c>
+      <c r="K143" s="26"/>
+      <c r="L143" s="26"/>
+      <c r="M143" s="26"/>
+      <c r="N143" s="26"/>
+      <c r="O143" s="26"/>
+      <c r="P143" s="26"/>
+      <c r="Q143" s="26"/>
+      <c r="R143" s="26"/>
+      <c r="S143" s="26"/>
+      <c r="T143" s="26"/>
+      <c r="U143" s="26"/>
+      <c r="V143" s="26"/>
+      <c r="W143" s="25"/>
+      <c r="X143" s="25"/>
+    </row>
+    <row r="144" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="9">
+        <v>2</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" t="s">
+        <v>227</v>
+      </c>
+      <c r="F144" s="77">
+        <v>45152</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H144" s="8"/>
+      <c r="I144" t="s">
+        <v>70</v>
+      </c>
+      <c r="J144" s="26">
+        <v>44859</v>
+      </c>
+      <c r="K144" s="28">
+        <v>44867</v>
+      </c>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="26"/>
+      <c r="P144" s="26"/>
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26"/>
+      <c r="S144" s="26"/>
+      <c r="T144" s="26"/>
+      <c r="U144" s="26"/>
+      <c r="V144" s="26"/>
+      <c r="W144" s="25"/>
+      <c r="X144" s="25"/>
+    </row>
+    <row r="145" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" s="9">
+        <v>1</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" t="s">
+        <v>230</v>
+      </c>
+      <c r="F145" s="77">
+        <v>45152</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I145" t="s">
+        <v>70</v>
+      </c>
+      <c r="J145" s="26">
+        <v>44868</v>
+      </c>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
+      <c r="P145" s="26"/>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="26"/>
+      <c r="T145" s="26"/>
+      <c r="U145" s="26"/>
+      <c r="V145" s="26"/>
+      <c r="W145" s="25"/>
+      <c r="X145" s="25"/>
+    </row>
+    <row r="146" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" s="9">
+        <v>2</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D146" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" s="77">
+        <v>45152</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" t="s">
+        <v>70</v>
+      </c>
+      <c r="J146" s="26">
+        <v>44867</v>
+      </c>
+      <c r="K146" s="26">
+        <v>44895</v>
+      </c>
+      <c r="L146" s="28">
+        <v>44944</v>
+      </c>
+      <c r="M146" s="26"/>
+      <c r="N146" s="26"/>
+      <c r="O146" s="26"/>
+      <c r="P146" s="26"/>
+      <c r="Q146" s="26"/>
+      <c r="R146" s="26"/>
+      <c r="S146" s="26"/>
+      <c r="T146" s="26"/>
+      <c r="U146" s="26"/>
+      <c r="V146" s="26"/>
+      <c r="W146" s="25"/>
+      <c r="X146" s="25"/>
+    </row>
+    <row r="147" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="9">
+        <v>2</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>227</v>
+      </c>
+      <c r="F147" s="77">
+        <v>45152</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I147" t="s">
+        <v>70</v>
+      </c>
+      <c r="J147" s="26">
+        <v>44867</v>
+      </c>
+      <c r="K147" s="26">
+        <v>44895</v>
+      </c>
+      <c r="L147" s="26"/>
+      <c r="M147" s="26"/>
+      <c r="N147" s="26"/>
+      <c r="O147" s="26"/>
+      <c r="P147" s="26"/>
+      <c r="Q147" s="26"/>
+      <c r="R147" s="26"/>
+      <c r="S147" s="26"/>
+      <c r="T147" s="26"/>
+      <c r="U147" s="26"/>
+      <c r="V147" s="26"/>
+      <c r="W147" s="25"/>
+      <c r="X147" s="25"/>
+    </row>
+    <row r="148" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" s="9">
+        <v>2</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D148" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="F148" s="77">
+        <v>45141.635844907411</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I148" t="s">
+        <v>70</v>
+      </c>
+      <c r="J148" s="54">
+        <v>44965</v>
+      </c>
+      <c r="K148" s="54">
+        <v>44993</v>
+      </c>
+      <c r="L148" s="54"/>
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
+      <c r="P148" s="54"/>
+      <c r="Q148" s="54"/>
+      <c r="R148" s="54"/>
+      <c r="S148" s="54"/>
+      <c r="T148" s="54"/>
+      <c r="U148" s="54"/>
+      <c r="V148" s="54"/>
+      <c r="W148" s="25"/>
+      <c r="X148" s="25"/>
+    </row>
+    <row r="149" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B149" s="3">
         <v>12</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F138" s="77">
-        <f t="shared" ref="F138:F142" ca="1" si="0">IF(E138&lt;&gt;E138, "", NOW())</f>
-        <v>45180.463780555554</v>
-      </c>
-      <c r="I138" t="s">
-        <v>226</v>
-      </c>
-      <c r="J138" s="25">
-        <v>44999</v>
-      </c>
-      <c r="K138" s="25">
-        <v>45008</v>
-      </c>
-      <c r="L138" s="25">
-        <v>45013</v>
-      </c>
-      <c r="M138" s="25">
-        <v>45020</v>
-      </c>
-      <c r="N138" s="25">
-        <v>45027</v>
-      </c>
-      <c r="O138" s="25">
-        <v>45034</v>
-      </c>
-      <c r="P138" s="25">
-        <v>45042</v>
-      </c>
-      <c r="Q138" s="25">
-        <v>45049</v>
-      </c>
-      <c r="R138" s="25">
-        <v>45056</v>
-      </c>
-      <c r="S138" s="25">
-        <v>45070</v>
-      </c>
-      <c r="T138" s="25">
-        <v>45084</v>
-      </c>
-      <c r="U138" s="25">
-        <v>45104</v>
-      </c>
-      <c r="V138" s="25">
-        <v>45104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B139" s="3">
-        <v>4</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F139" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>45180.463780555554</v>
-      </c>
-      <c r="H139" t="s">
-        <v>229</v>
-      </c>
-      <c r="I139" t="s">
-        <v>226</v>
-      </c>
-      <c r="J139" s="25">
-        <v>45008</v>
-      </c>
-      <c r="K139" s="25">
-        <v>45019</v>
-      </c>
-      <c r="L139" s="25">
-        <v>45027</v>
-      </c>
-      <c r="M139" s="25">
-        <v>45036</v>
-      </c>
-      <c r="N139" s="25"/>
-      <c r="O139" s="25"/>
-      <c r="P139"/>
-      <c r="Q139" s="25"/>
-      <c r="R139" s="25"/>
-      <c r="S139" s="25"/>
-      <c r="T139" s="25"/>
-      <c r="U139" s="71"/>
-      <c r="V139" s="25">
-        <v>45036</v>
-      </c>
-      <c r="W139" s="11"/>
-    </row>
-    <row r="140" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B140" s="3">
-        <v>12</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F140" s="77">
-        <v>45140.471412037034</v>
-      </c>
-      <c r="H140" t="s">
-        <v>232</v>
-      </c>
-      <c r="I140" t="s">
-        <v>226</v>
-      </c>
-      <c r="J140" s="25">
-        <v>45009</v>
-      </c>
-      <c r="K140" s="25">
-        <v>45019</v>
-      </c>
-      <c r="L140" s="25">
-        <v>45027</v>
-      </c>
-      <c r="M140" s="25">
-        <v>45034</v>
-      </c>
-      <c r="N140" s="25">
-        <v>45041</v>
-      </c>
-      <c r="O140" s="25">
-        <v>45048</v>
-      </c>
-      <c r="P140" s="25">
-        <v>45055</v>
-      </c>
-      <c r="Q140" s="25">
-        <v>45068</v>
-      </c>
-      <c r="R140" s="25">
-        <v>45075</v>
-      </c>
-      <c r="S140" s="25">
-        <v>45084</v>
-      </c>
-      <c r="T140" s="25">
-        <v>45100</v>
-      </c>
-      <c r="U140" s="25">
-        <v>45121</v>
-      </c>
-      <c r="V140" s="25">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B141" s="3">
-        <v>12</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F141" s="77">
-        <v>45140.47148148148</v>
-      </c>
-      <c r="H141" t="s">
-        <v>234</v>
-      </c>
-      <c r="I141" t="s">
-        <v>226</v>
-      </c>
-      <c r="J141" s="25">
-        <v>45013</v>
-      </c>
-      <c r="K141" s="25">
-        <v>45021</v>
-      </c>
-      <c r="L141" s="25">
-        <v>45027</v>
-      </c>
-      <c r="M141" s="25">
-        <v>45037</v>
-      </c>
-      <c r="N141" s="25">
-        <v>45044</v>
-      </c>
-      <c r="O141" s="25">
-        <v>45051</v>
-      </c>
-      <c r="P141" s="25">
-        <v>45058</v>
-      </c>
-      <c r="Q141" s="25">
-        <v>45070</v>
-      </c>
-      <c r="R141" s="25">
-        <v>45079</v>
-      </c>
-      <c r="S141" s="25">
-        <v>45112</v>
-      </c>
-      <c r="T141" s="25">
-        <v>45141</v>
-      </c>
-      <c r="U141" s="25">
-        <v>45153</v>
-      </c>
-      <c r="V141" s="25">
-        <v>45153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B142" s="3">
-        <v>2</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F142" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>45180.463780555554</v>
-      </c>
-      <c r="I142" t="s">
-        <v>226</v>
-      </c>
-      <c r="J142" s="25">
-        <v>45035</v>
-      </c>
-      <c r="K142" s="25">
-        <v>45043</v>
-      </c>
-      <c r="L142" s="25"/>
-      <c r="M142" s="25"/>
-      <c r="N142" s="25"/>
-      <c r="O142" s="25"/>
-      <c r="P142" s="25"/>
-      <c r="Q142" s="25"/>
-      <c r="R142" s="25"/>
-      <c r="S142" s="25"/>
-      <c r="T142" s="25"/>
-      <c r="U142" s="25"/>
-      <c r="V142" s="25">
-        <v>45043</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B143" s="3">
-        <v>7</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F143" s="77">
-        <v>45140.473217592589</v>
-      </c>
-      <c r="H143" t="s">
-        <v>238</v>
-      </c>
-      <c r="I143" t="s">
-        <v>226</v>
-      </c>
-      <c r="J143" s="25">
-        <v>45044</v>
-      </c>
-      <c r="K143" s="25">
-        <v>45058</v>
-      </c>
-      <c r="L143" s="25">
-        <v>45069</v>
-      </c>
-      <c r="M143" s="25">
-        <v>45100</v>
-      </c>
-      <c r="N143" s="25">
-        <v>45111</v>
-      </c>
-      <c r="O143" s="25">
-        <v>45121</v>
-      </c>
-      <c r="P143" s="25">
-        <v>45128</v>
-      </c>
-      <c r="Q143" s="25"/>
-      <c r="R143" s="25"/>
-      <c r="S143" s="25"/>
-      <c r="T143" s="25"/>
-      <c r="U143" s="25"/>
-      <c r="V143" s="25">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B144" s="3">
-        <v>11</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F144" s="77">
-        <v>45140.453090277777</v>
-      </c>
-      <c r="I144" t="s">
-        <v>226</v>
-      </c>
-      <c r="J144" s="25">
-        <v>45055</v>
-      </c>
-      <c r="K144" s="25">
-        <v>45069</v>
-      </c>
-      <c r="L144" s="25">
-        <v>45097</v>
-      </c>
-      <c r="M144" s="25">
-        <v>45118</v>
-      </c>
-      <c r="N144" s="25">
-        <v>45124</v>
-      </c>
-      <c r="O144" s="25">
-        <v>45139</v>
-      </c>
-      <c r="P144" s="25">
-        <v>45146</v>
-      </c>
-      <c r="Q144" s="25">
-        <v>45153</v>
-      </c>
-      <c r="R144" s="25">
-        <v>45160</v>
-      </c>
-      <c r="S144" s="25">
-        <v>45167</v>
-      </c>
-      <c r="T144" s="25">
-        <v>45174</v>
-      </c>
-      <c r="U144" s="25"/>
-      <c r="V144" s="25"/>
-    </row>
-    <row r="145" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B145" s="3">
-        <v>7</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F145" s="77">
-        <v>45140.474733796298</v>
-      </c>
-      <c r="I145" t="s">
-        <v>226</v>
-      </c>
-      <c r="J145" s="25">
-        <v>45055</v>
-      </c>
-      <c r="K145" s="25">
-        <v>45069</v>
-      </c>
-      <c r="L145" s="25">
-        <v>45083</v>
-      </c>
-      <c r="M145" s="25">
-        <v>45104</v>
-      </c>
-      <c r="N145" s="25">
-        <v>45111</v>
-      </c>
-      <c r="O145" s="25">
-        <v>45118</v>
-      </c>
-      <c r="P145" s="25">
-        <v>45132</v>
-      </c>
-      <c r="Q145" s="25"/>
-      <c r="R145" s="25"/>
-      <c r="S145" s="25"/>
-      <c r="T145" s="25"/>
-      <c r="U145" s="25"/>
-      <c r="V145" s="25">
-        <v>45132</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B146" s="3">
-        <v>6</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F146" s="77">
-        <v>45140.476053240738</v>
-      </c>
-      <c r="H146" t="s">
-        <v>244</v>
-      </c>
-      <c r="I146" t="s">
-        <v>226</v>
-      </c>
-      <c r="J146" s="25">
-        <v>45068</v>
-      </c>
-      <c r="K146" s="25">
-        <v>45083</v>
-      </c>
-      <c r="L146" s="25">
-        <v>45103</v>
-      </c>
-      <c r="M146" s="25">
-        <v>45124</v>
-      </c>
-      <c r="N146" s="25">
-        <v>45134</v>
-      </c>
-      <c r="O146" s="25">
-        <v>45148</v>
-      </c>
-      <c r="P146" s="25"/>
-      <c r="Q146" s="25"/>
-      <c r="R146" s="25"/>
-      <c r="S146" s="25"/>
-      <c r="T146" s="25"/>
-      <c r="U146" s="25"/>
-      <c r="V146" s="25"/>
-    </row>
-    <row r="147" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="3">
-        <v>5</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F147" s="77">
-        <v>45140.476724537039</v>
-      </c>
-      <c r="H147" t="s">
-        <v>247</v>
-      </c>
-      <c r="I147" t="s">
-        <v>226</v>
-      </c>
-      <c r="J147" s="25">
-        <v>45069</v>
-      </c>
-      <c r="K147" s="25">
-        <v>45075</v>
-      </c>
-      <c r="L147" s="25">
-        <v>45098</v>
-      </c>
-      <c r="M147" s="25">
-        <v>45114</v>
-      </c>
-      <c r="N147" s="25">
-        <v>45128</v>
-      </c>
-      <c r="O147" s="25"/>
-      <c r="P147" s="25"/>
-      <c r="Q147" s="25"/>
-      <c r="R147" s="25"/>
-      <c r="S147" s="25"/>
-      <c r="T147" s="25"/>
-      <c r="U147" s="25"/>
-      <c r="V147" s="25">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B148" s="3">
-        <v>9</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F148" s="77">
-        <v>45140.47761574074</v>
-      </c>
-      <c r="H148" t="s">
-        <v>249</v>
-      </c>
-      <c r="I148" t="s">
-        <v>226</v>
-      </c>
-      <c r="J148" s="25">
-        <v>45069</v>
-      </c>
-      <c r="K148" s="25">
-        <v>45076</v>
-      </c>
-      <c r="L148" s="25">
-        <v>45100</v>
-      </c>
-      <c r="M148" s="25">
-        <v>45105</v>
-      </c>
-      <c r="N148" s="25">
-        <v>45111</v>
-      </c>
-      <c r="O148" s="25">
-        <v>45120</v>
-      </c>
-      <c r="P148" s="25">
-        <v>45128</v>
-      </c>
-      <c r="Q148" s="25">
-        <v>45168</v>
-      </c>
-      <c r="R148" s="25">
-        <v>45174</v>
-      </c>
-      <c r="S148" s="25"/>
-      <c r="T148" s="25"/>
-      <c r="U148" s="25"/>
-      <c r="V148" s="25"/>
-    </row>
-    <row r="149" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B149" s="3">
-        <v>8</v>
-      </c>
       <c r="C149" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F149" s="77">
-        <v>45140.485347222224</v>
-      </c>
-      <c r="H149" t="s">
-        <v>251</v>
+        <f t="shared" ref="F149:F153" ca="1" si="0">IF(E149&lt;&gt;E149, "", NOW())</f>
+        <v>45184.696562384263</v>
       </c>
       <c r="I149" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J149" s="25">
-        <v>45085</v>
+        <v>44999</v>
       </c>
       <c r="K149" s="25">
+        <v>45008</v>
+      </c>
+      <c r="L149" s="25">
+        <v>45013</v>
+      </c>
+      <c r="M149" s="25">
+        <v>45020</v>
+      </c>
+      <c r="N149" s="25">
+        <v>45027</v>
+      </c>
+      <c r="O149" s="25">
+        <v>45034</v>
+      </c>
+      <c r="P149" s="25">
+        <v>45042</v>
+      </c>
+      <c r="Q149" s="25">
+        <v>45049</v>
+      </c>
+      <c r="R149" s="25">
+        <v>45056</v>
+      </c>
+      <c r="S149" s="25">
+        <v>45070</v>
+      </c>
+      <c r="T149" s="25">
+        <v>45084</v>
+      </c>
+      <c r="U149" s="25">
         <v>45104</v>
       </c>
-      <c r="L149" s="25">
-        <v>45111</v>
-      </c>
-      <c r="M149" s="25">
-        <v>45118</v>
-      </c>
-      <c r="N149" s="25">
-        <v>45128</v>
-      </c>
-      <c r="O149" s="25">
-        <v>45134</v>
-      </c>
-      <c r="P149" s="25">
-        <v>45141</v>
-      </c>
-      <c r="Q149" s="25">
-        <v>45152</v>
-      </c>
-      <c r="R149" s="25"/>
-      <c r="S149" s="25"/>
-      <c r="T149" s="25"/>
-      <c r="U149" s="25"/>
-      <c r="V149" s="25"/>
-    </row>
-    <row r="150" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V149" s="25">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B150" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F150" s="77">
-        <v>45140.486111111109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45184.696562384263</v>
       </c>
       <c r="H150" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I150" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J150" s="25">
-        <v>45085</v>
+        <v>45008</v>
       </c>
       <c r="K150" s="25">
-        <v>45099</v>
+        <v>45019</v>
       </c>
       <c r="L150" s="25">
-        <v>45111</v>
+        <v>45027</v>
       </c>
       <c r="M150" s="25">
-        <v>45125</v>
-      </c>
-      <c r="N150" s="25">
-        <v>45138</v>
-      </c>
-      <c r="O150" s="25">
-        <v>45146</v>
-      </c>
-      <c r="P150" s="25">
-        <v>45159</v>
-      </c>
-      <c r="Q150" s="25">
-        <v>45173</v>
-      </c>
+        <v>45036</v>
+      </c>
+      <c r="N150" s="25"/>
+      <c r="O150" s="25"/>
+      <c r="P150"/>
+      <c r="Q150" s="25"/>
       <c r="R150" s="25"/>
       <c r="S150" s="25"/>
       <c r="T150" s="25"/>
-      <c r="U150" s="25"/>
-      <c r="V150" s="25"/>
-    </row>
-    <row r="151" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U150" s="71"/>
+      <c r="V150" s="25">
+        <v>45036</v>
+      </c>
+      <c r="W150" s="11"/>
+    </row>
+    <row r="151" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B151" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F151" s="78">
-        <v>45140.486828703702</v>
+        <v>243</v>
+      </c>
+      <c r="F151" s="77">
+        <v>45140.471412037034</v>
+      </c>
+      <c r="H151" t="s">
+        <v>244</v>
       </c>
       <c r="I151" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J151" s="25">
-        <v>45126</v>
-      </c>
-      <c r="K151" s="81">
-        <v>45133</v>
-      </c>
-      <c r="L151" s="81">
-        <v>45140</v>
-      </c>
-      <c r="M151" s="81">
-        <v>45154</v>
-      </c>
-      <c r="N151" s="81">
-        <v>45166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45009</v>
+      </c>
+      <c r="K151" s="25">
+        <v>45019</v>
+      </c>
+      <c r="L151" s="25">
+        <v>45027</v>
+      </c>
+      <c r="M151" s="25">
+        <v>45034</v>
+      </c>
+      <c r="N151" s="25">
+        <v>45041</v>
+      </c>
+      <c r="O151" s="25">
+        <v>45048</v>
+      </c>
+      <c r="P151" s="25">
+        <v>45055</v>
+      </c>
+      <c r="Q151" s="25">
+        <v>45068</v>
+      </c>
+      <c r="R151" s="25">
+        <v>45075</v>
+      </c>
+      <c r="S151" s="25">
+        <v>45084</v>
+      </c>
+      <c r="T151" s="25">
+        <v>45100</v>
+      </c>
+      <c r="U151" s="25">
+        <v>45121</v>
+      </c>
+      <c r="V151" s="25">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B152" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F152" s="78">
-        <v>45140.487488425926</v>
+        <v>237</v>
+      </c>
+      <c r="F152" s="77">
+        <v>45140.47148148148</v>
+      </c>
+      <c r="H152" t="s">
+        <v>246</v>
       </c>
       <c r="I152" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J152" s="25">
-        <v>45127</v>
-      </c>
-      <c r="K152" s="81">
-        <v>45134</v>
-      </c>
-      <c r="L152" s="81">
-        <v>45148</v>
-      </c>
-      <c r="M152" s="81">
-        <v>45156</v>
-      </c>
-      <c r="N152" s="81">
-        <v>45173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45013</v>
+      </c>
+      <c r="K152" s="25">
+        <v>45021</v>
+      </c>
+      <c r="L152" s="25">
+        <v>45027</v>
+      </c>
+      <c r="M152" s="25">
+        <v>45037</v>
+      </c>
+      <c r="N152" s="25">
+        <v>45044</v>
+      </c>
+      <c r="O152" s="25">
+        <v>45051</v>
+      </c>
+      <c r="P152" s="25">
+        <v>45058</v>
+      </c>
+      <c r="Q152" s="25">
+        <v>45070</v>
+      </c>
+      <c r="R152" s="25">
+        <v>45079</v>
+      </c>
+      <c r="S152" s="25">
+        <v>45112</v>
+      </c>
+      <c r="T152" s="25">
+        <v>45141</v>
+      </c>
+      <c r="U152" s="25">
+        <v>45153</v>
+      </c>
+      <c r="V152" s="25">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B153" s="3">
         <v>2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E153" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F153" s="77">
+        <f t="shared" ca="1" si="0"/>
+        <v>45184.696562384263</v>
+      </c>
       <c r="I153" t="s">
-        <v>226</v>
-      </c>
-      <c r="J153" s="81">
-        <v>45141</v>
-      </c>
-      <c r="K153" s="81">
-        <v>45147</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="J153" s="25">
+        <v>45035</v>
+      </c>
+      <c r="K153" s="25">
+        <v>45043</v>
+      </c>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="25"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
+      <c r="T153" s="25"/>
+      <c r="U153" s="25"/>
+      <c r="V153" s="25">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B154" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E154" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" s="77">
+        <v>45140.473217592589</v>
+      </c>
+      <c r="H154" t="s">
+        <v>250</v>
+      </c>
       <c r="I154" t="s">
-        <v>226</v>
-      </c>
-      <c r="J154" s="81">
-        <v>45169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="J154" s="25">
+        <v>45044</v>
+      </c>
+      <c r="K154" s="25">
+        <v>45058</v>
+      </c>
+      <c r="L154" s="25">
+        <v>45069</v>
+      </c>
+      <c r="M154" s="25">
+        <v>45100</v>
+      </c>
+      <c r="N154" s="25">
+        <v>45111</v>
+      </c>
+      <c r="O154" s="25">
+        <v>45121</v>
+      </c>
+      <c r="P154" s="25">
+        <v>45128</v>
+      </c>
+      <c r="Q154" s="25"/>
+      <c r="R154" s="25"/>
+      <c r="S154" s="25"/>
+      <c r="T154" s="25"/>
+      <c r="U154" s="25"/>
+      <c r="V154" s="25">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B155" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>55</v>
@@ -9704,17 +9672,567 @@
       <c r="D155" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E155" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F155" s="77">
+        <v>45140.453090277777</v>
+      </c>
       <c r="I155" t="s">
-        <v>226</v>
-      </c>
-      <c r="J155" s="82">
+        <v>238</v>
+      </c>
+      <c r="J155" s="25">
+        <v>45055</v>
+      </c>
+      <c r="K155" s="25">
+        <v>45069</v>
+      </c>
+      <c r="L155" s="25">
+        <v>45097</v>
+      </c>
+      <c r="M155" s="25">
+        <v>45118</v>
+      </c>
+      <c r="N155" s="25">
+        <v>45124</v>
+      </c>
+      <c r="O155" s="25">
+        <v>45139</v>
+      </c>
+      <c r="P155" s="25">
+        <v>45146</v>
+      </c>
+      <c r="Q155" s="25">
+        <v>45153</v>
+      </c>
+      <c r="R155" s="25">
+        <v>45160</v>
+      </c>
+      <c r="S155" s="25">
+        <v>45167</v>
+      </c>
+      <c r="T155" s="25">
+        <v>45174</v>
+      </c>
+      <c r="U155" s="25"/>
+      <c r="V155" s="25"/>
+    </row>
+    <row r="156" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" s="3">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F156" s="77">
+        <v>45140.474733796298</v>
+      </c>
+      <c r="I156" t="s">
+        <v>238</v>
+      </c>
+      <c r="J156" s="25">
+        <v>45055</v>
+      </c>
+      <c r="K156" s="25">
+        <v>45069</v>
+      </c>
+      <c r="L156" s="25">
+        <v>45083</v>
+      </c>
+      <c r="M156" s="25">
+        <v>45104</v>
+      </c>
+      <c r="N156" s="25">
+        <v>45111</v>
+      </c>
+      <c r="O156" s="25">
+        <v>45118</v>
+      </c>
+      <c r="P156" s="25">
+        <v>45132</v>
+      </c>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="25">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" s="3">
+        <v>6</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F157" s="77">
+        <v>45140.476053240738</v>
+      </c>
+      <c r="H157" t="s">
+        <v>256</v>
+      </c>
+      <c r="I157" t="s">
+        <v>238</v>
+      </c>
+      <c r="J157" s="25">
+        <v>45068</v>
+      </c>
+      <c r="K157" s="25">
+        <v>45083</v>
+      </c>
+      <c r="L157" s="25">
+        <v>45103</v>
+      </c>
+      <c r="M157" s="25">
+        <v>45124</v>
+      </c>
+      <c r="N157" s="25">
+        <v>45134</v>
+      </c>
+      <c r="O157" s="25">
+        <v>45148</v>
+      </c>
+      <c r="P157" s="25"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="25"/>
+    </row>
+    <row r="158" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" s="77">
+        <v>45140.476724537039</v>
+      </c>
+      <c r="H158" t="s">
+        <v>259</v>
+      </c>
+      <c r="I158" t="s">
+        <v>238</v>
+      </c>
+      <c r="J158" s="25">
+        <v>45069</v>
+      </c>
+      <c r="K158" s="25">
+        <v>45075</v>
+      </c>
+      <c r="L158" s="25">
+        <v>45098</v>
+      </c>
+      <c r="M158" s="25">
+        <v>45114</v>
+      </c>
+      <c r="N158" s="25">
+        <v>45128</v>
+      </c>
+      <c r="O158" s="25"/>
+      <c r="P158" s="25"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="25"/>
+      <c r="V158" s="25">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" s="3">
+        <v>9</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F159" s="77">
+        <v>45140.47761574074</v>
+      </c>
+      <c r="H159" t="s">
+        <v>261</v>
+      </c>
+      <c r="I159" t="s">
+        <v>238</v>
+      </c>
+      <c r="J159" s="25">
+        <v>45069</v>
+      </c>
+      <c r="K159" s="25">
+        <v>45076</v>
+      </c>
+      <c r="L159" s="25">
+        <v>45100</v>
+      </c>
+      <c r="M159" s="25">
+        <v>45105</v>
+      </c>
+      <c r="N159" s="25">
+        <v>45111</v>
+      </c>
+      <c r="O159" s="25">
+        <v>45120</v>
+      </c>
+      <c r="P159" s="25">
+        <v>45128</v>
+      </c>
+      <c r="Q159" s="25">
+        <v>45168</v>
+      </c>
+      <c r="R159" s="25">
+        <v>45174</v>
+      </c>
+      <c r="S159" s="25"/>
+      <c r="T159" s="25"/>
+      <c r="U159" s="25"/>
+      <c r="V159" s="25"/>
+    </row>
+    <row r="160" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" s="3">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F160" s="77">
+        <v>45140.485347222224</v>
+      </c>
+      <c r="H160" t="s">
+        <v>263</v>
+      </c>
+      <c r="I160" t="s">
+        <v>238</v>
+      </c>
+      <c r="J160" s="25">
+        <v>45085</v>
+      </c>
+      <c r="K160" s="25">
+        <v>45104</v>
+      </c>
+      <c r="L160" s="25">
+        <v>45111</v>
+      </c>
+      <c r="M160" s="25">
+        <v>45118</v>
+      </c>
+      <c r="N160" s="25">
+        <v>45128</v>
+      </c>
+      <c r="O160" s="25">
+        <v>45134</v>
+      </c>
+      <c r="P160" s="25">
+        <v>45141</v>
+      </c>
+      <c r="Q160" s="25">
+        <v>45152</v>
+      </c>
+      <c r="R160" s="25"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="25"/>
+      <c r="U160" s="25"/>
+      <c r="V160" s="25"/>
+    </row>
+    <row r="161" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B161" s="3">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F161" s="77">
+        <v>45140.486111111109</v>
+      </c>
+      <c r="H161" t="s">
+        <v>265</v>
+      </c>
+      <c r="I161" t="s">
+        <v>238</v>
+      </c>
+      <c r="J161" s="25">
+        <v>45085</v>
+      </c>
+      <c r="K161" s="25">
+        <v>45099</v>
+      </c>
+      <c r="L161" s="25">
+        <v>45111</v>
+      </c>
+      <c r="M161" s="25">
+        <v>45125</v>
+      </c>
+      <c r="N161" s="25">
+        <v>45138</v>
+      </c>
+      <c r="O161" s="25">
+        <v>45146</v>
+      </c>
+      <c r="P161" s="25">
+        <v>45159</v>
+      </c>
+      <c r="Q161" s="25">
+        <v>45173</v>
+      </c>
+      <c r="R161" s="25"/>
+      <c r="S161" s="25"/>
+      <c r="T161" s="25"/>
+      <c r="U161" s="25"/>
+      <c r="V161" s="25"/>
+    </row>
+    <row r="162" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F162" s="78">
+        <v>45140.486828703702</v>
+      </c>
+      <c r="I162" t="s">
+        <v>238</v>
+      </c>
+      <c r="J162" s="25">
+        <v>45126</v>
+      </c>
+      <c r="K162" s="81">
+        <v>45133</v>
+      </c>
+      <c r="L162" s="81">
+        <v>45140</v>
+      </c>
+      <c r="M162" s="81">
+        <v>45154</v>
+      </c>
+      <c r="N162" s="81">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F163" s="78">
+        <v>45140.487488425926</v>
+      </c>
+      <c r="I163" t="s">
+        <v>238</v>
+      </c>
+      <c r="J163" s="25">
+        <v>45127</v>
+      </c>
+      <c r="K163" s="81">
+        <v>45134</v>
+      </c>
+      <c r="L163" s="81">
+        <v>45148</v>
+      </c>
+      <c r="M163" s="81">
+        <v>45156</v>
+      </c>
+      <c r="N163" s="81">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I164" t="s">
+        <v>238</v>
+      </c>
+      <c r="J164" s="81">
+        <v>45141</v>
+      </c>
+      <c r="K164" s="81">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I165" t="s">
+        <v>238</v>
+      </c>
+      <c r="J165" s="81">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I166" t="s">
+        <v>238</v>
+      </c>
+      <c r="J166" s="82">
         <v>45175</v>
       </c>
     </row>
+    <row r="167" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I167" t="s">
+        <v>238</v>
+      </c>
+      <c r="J167" s="31">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I168" t="s">
+        <v>238</v>
+      </c>
+      <c r="J168" s="31">
+        <v>45176</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V150" xr:uid="{CE94D2FB-7191-44BB-88C2-D162FE88D8E1}"/>
+  <autoFilter ref="A1:V161" xr:uid="{CE94D2FB-7191-44BB-88C2-D162FE88D8E1}"/>
   <mergeCells count="1">
-    <mergeCell ref="Z107:AA107"/>
+    <mergeCell ref="Z112:AA112"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9728,7 +10246,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -9763,7 +10281,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
@@ -9817,28 +10335,28 @@
     </row>
     <row r="2" spans="1:27" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B2" s="61">
         <v>0</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E2" s="61"/>
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I2" s="60" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="K2" s="63"/>
       <c r="L2" s="63"/>
@@ -9855,7 +10373,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B3" s="49">
         <v>4</v>
@@ -9864,13 +10382,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
       <c r="H3" s="57" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -9901,7 +10419,7 @@
     </row>
     <row r="4" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B4" s="49">
         <v>3</v>
@@ -9910,7 +10428,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
@@ -9940,13 +10458,13 @@
         <v>45028</v>
       </c>
       <c r="Z4" s="85" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AA4" s="86"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B5" s="49">
         <v>5</v>
@@ -9955,7 +10473,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -9989,15 +10507,15 @@
         <v>45084</v>
       </c>
       <c r="Z5" s="37" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AA5" s="37" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B6" s="49">
         <v>3</v>
@@ -10006,7 +10524,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
@@ -10039,12 +10557,12 @@
         <v>23</v>
       </c>
       <c r="AA6" s="56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B7" s="49">
         <v>6</v>
@@ -10053,7 +10571,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
@@ -10092,12 +10610,12 @@
         <v>78</v>
       </c>
       <c r="AA7" s="56" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B8" s="49">
         <v>4</v>
@@ -10106,7 +10624,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -10141,27 +10659,27 @@
         <v>32</v>
       </c>
       <c r="AA8" s="56" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B9" s="49">
         <v>1</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="69" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
@@ -10184,30 +10702,30 @@
         <v>45093</v>
       </c>
       <c r="Z9" s="55" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AA9" s="56" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B10" s="49">
         <v>1</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="69" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
@@ -10232,22 +10750,22 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B11" s="49">
         <v>1</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="70" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
@@ -10272,7 +10790,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B12" s="49">
         <v>2</v>
@@ -10281,7 +10799,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -10310,7 +10828,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B13" s="51">
         <v>12</v>
@@ -10319,7 +10837,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>23</v>
@@ -10374,7 +10892,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B14" s="51">
         <v>9</v>
@@ -10383,7 +10901,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>23</v>
@@ -10429,7 +10947,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B15" s="51">
         <v>3</v>
@@ -10438,7 +10956,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>23</v>
@@ -10474,7 +10992,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B16" s="51">
         <v>3</v>
@@ -10483,7 +11001,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>23</v>
@@ -10519,7 +11037,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B17" s="51">
         <v>5</v>
@@ -10528,7 +11046,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>23</v>
@@ -10568,16 +11086,16 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B18" s="51">
         <v>1</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -10600,7 +11118,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B19" s="51">
         <v>3</v>
@@ -10609,7 +11127,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>23</v>
@@ -10642,7 +11160,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B20" s="51">
         <v>12</v>
@@ -10651,7 +11169,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>23</v>
@@ -10705,7 +11223,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B21" s="51">
         <v>10</v>
@@ -10714,7 +11232,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>23</v>
@@ -10759,16 +11277,16 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B22" s="51">
         <v>1</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E22" s="51" t="s">
         <v>23</v>
@@ -10798,7 +11316,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B23" s="51">
         <v>4</v>
@@ -10807,7 +11325,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>23</v>
@@ -10840,7 +11358,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B24" s="51">
         <v>4</v>
@@ -10849,7 +11367,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E24" s="51" t="s">
         <v>23</v>
@@ -10882,7 +11400,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B25" s="51">
         <v>1</v>
@@ -10891,7 +11409,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E25" s="51" t="s">
         <v>23</v>
@@ -10918,7 +11436,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B26" s="52">
         <v>12</v>
@@ -10927,7 +11445,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>23</v>
@@ -10978,7 +11496,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B27" s="52">
         <v>12</v>
@@ -10987,7 +11505,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>23</v>
@@ -11038,7 +11556,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B28" s="52">
         <v>2</v>
@@ -11047,7 +11565,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>23</v>
@@ -11078,7 +11596,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B29" s="52">
         <v>1</v>
@@ -11087,7 +11605,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>23</v>
@@ -11116,7 +11634,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B30" s="52">
         <v>6</v>
@@ -11125,7 +11643,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>23</v>
@@ -11166,7 +11684,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B31" s="52">
         <v>5</v>
@@ -11175,7 +11693,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>23</v>
@@ -11212,7 +11730,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B32" s="52">
         <v>12</v>
@@ -11221,7 +11739,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>23</v>
@@ -11272,7 +11790,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B33" s="52">
         <v>4</v>
@@ -11281,10 +11799,10 @@
         <v>23</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F33" s="52"/>
       <c r="I33" t="s">
@@ -11314,7 +11832,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B34" s="52">
         <v>5</v>
@@ -11323,7 +11841,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>23</v>
@@ -11360,7 +11878,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B35" s="52">
         <v>6</v>
@@ -11369,7 +11887,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>23</v>
@@ -11408,16 +11926,16 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B36" s="52">
         <v>5</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>23</v>
@@ -11454,16 +11972,16 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B37" s="52">
         <v>3</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>23</v>
@@ -11496,7 +12014,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B38" s="52">
         <v>9</v>
@@ -11505,7 +12023,7 @@
         <v>55</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>23</v>
@@ -11548,7 +12066,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B39" s="52">
         <v>10</v>
@@ -11557,7 +12075,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>23</v>
@@ -11602,7 +12120,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B40" s="52">
         <v>2</v>
@@ -11611,7 +12129,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>23</v>
@@ -11642,7 +12160,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="52" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B41" s="52">
         <v>9</v>
@@ -11651,7 +12169,7 @@
         <v>55</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>23</v>
@@ -11694,16 +12212,16 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="52" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B42" s="52">
         <v>2</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E42" s="52" t="s">
         <v>23</v>
@@ -11734,7 +12252,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B43" s="52">
         <v>7</v>
@@ -11743,7 +12261,7 @@
         <v>55</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E43" s="52" t="s">
         <v>23</v>
@@ -11782,7 +12300,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B44" s="52">
         <v>2</v>
@@ -11791,7 +12309,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>23</v>
@@ -11820,7 +12338,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="52" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B45" s="52">
         <v>3</v>
@@ -11829,7 +12347,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>23</v>
@@ -11860,7 +12378,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B46" s="52">
         <v>4</v>
@@ -11869,7 +12387,7 @@
         <v>55</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E46" s="52" t="s">
         <v>23</v>
@@ -11902,7 +12420,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="52" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B47" s="52">
         <v>3</v>
@@ -11911,7 +12429,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>23</v>
@@ -11942,7 +12460,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B48" s="52">
         <v>2</v>
@@ -11951,7 +12469,7 @@
         <v>55</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>23</v>
@@ -11980,7 +12498,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B49" s="52">
         <v>1</v>
@@ -11989,10 +12507,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F49" s="52"/>
       <c r="I49" t="s">
@@ -12014,7 +12532,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
@@ -12023,7 +12541,7 @@
         <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -12052,7 +12570,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B51" s="1">
         <v>5</v>
@@ -12061,7 +12579,7 @@
         <v>32</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -12096,7 +12614,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B52" s="1">
         <v>5</v>
@@ -12105,7 +12623,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -12140,7 +12658,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -12149,7 +12667,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -12180,7 +12698,7 @@
     </row>
     <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B54" s="1">
         <v>11</v>
@@ -12189,15 +12707,15 @@
         <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="I54" t="s">
         <v>70</v>
@@ -12244,7 +12762,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -12253,7 +12771,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -12286,7 +12804,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B56" s="1">
         <v>6</v>
@@ -12295,7 +12813,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -12332,7 +12850,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B57" s="1">
         <v>9</v>
@@ -12341,12 +12859,12 @@
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="I57" t="s">
         <v>70</v>
@@ -12387,7 +12905,7 @@
     </row>
     <row r="58" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B58" s="1">
         <v>6</v>
@@ -12396,15 +12914,15 @@
         <v>32</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="66" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="I58" t="s">
         <v>70</v>
@@ -12439,21 +12957,21 @@
     </row>
     <row r="59" spans="1:22" s="60" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="59" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B59" s="59">
         <v>0</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D59" s="59" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
       <c r="H59" s="62" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I59" s="60" t="s">
         <v>70</v>
@@ -12474,7 +12992,7 @@
     </row>
     <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B60" s="1">
         <v>7</v>
@@ -12483,15 +13001,15 @@
         <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="I60" t="s">
         <v>70</v>
@@ -12526,7 +13044,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
@@ -12535,12 +13053,12 @@
         <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="64" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="I61" t="s">
         <v>70</v>
@@ -12573,7 +13091,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
@@ -12582,14 +13100,14 @@
         <v>55</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="64" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="I62" t="s">
         <v>70</v>
@@ -12620,7 +13138,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
@@ -12629,10 +13147,10 @@
         <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="67"/>
@@ -12661,7 +13179,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -12670,10 +13188,10 @@
         <v>55</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="67"/>
@@ -12702,19 +13220,19 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B65" s="1">
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="67"/>
@@ -12743,7 +13261,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -12752,10 +13270,10 @@
         <v>55</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="67"/>
@@ -12780,7 +13298,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B67" s="1">
         <v>2</v>
@@ -12789,10 +13307,10 @@
         <v>32</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="67"/>
@@ -12821,7 +13339,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -12830,10 +13348,10 @@
         <v>55</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="67"/>
@@ -12858,7 +13376,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B69" s="50">
         <v>3</v>
@@ -12867,7 +13385,7 @@
         <v>55</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
@@ -12896,7 +13414,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B70" s="50">
         <v>2</v>
@@ -12905,7 +13423,7 @@
         <v>55</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E70" s="50"/>
       <c r="F70" s="50"/>
@@ -12932,7 +13450,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B71" s="50">
         <v>6</v>
@@ -12941,7 +13459,7 @@
         <v>55</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E71" s="50"/>
       <c r="F71" s="50"/>
@@ -12976,7 +13494,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B72" s="50">
         <v>4</v>
@@ -12985,7 +13503,7 @@
         <v>55</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E72" s="50"/>
       <c r="F72" s="50"/>
@@ -13016,12 +13534,12 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="50" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B73" s="50"/>
       <c r="C73" s="50"/>
       <c r="D73" s="50" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E73" s="50"/>
       <c r="F73" s="50"/>
@@ -13041,16 +13559,16 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I74" t="s">
         <v>70</v>
@@ -13075,7 +13593,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -13084,7 +13602,7 @@
         <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I75" t="s">
         <v>70</v>
@@ -13111,7 +13629,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -13120,7 +13638,7 @@
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I76" t="s">
         <v>70</v>
@@ -13147,7 +13665,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -13156,7 +13674,7 @@
         <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I77" t="s">
         <v>70</v>
@@ -13179,7 +13697,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -13188,10 +13706,10 @@
         <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="I78" t="s">
         <v>70</v>
@@ -13218,7 +13736,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -13227,10 +13745,10 @@
         <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="I79" t="s">
         <v>70</v>
